--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372144.6528714889</v>
+        <v>239459.6345803133</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1021131.497504796</v>
+        <v>916426.2536032824</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23317219.45581036</v>
+        <v>23253504.73204981</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5293619.765313891</v>
+        <v>5324659.721978609</v>
       </c>
     </row>
     <row r="11">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15.24674967431855</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17.3101154340583</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17.3101154340583</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.3101154340583</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>32.98464104045485</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>32.98464104045485</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="H12" t="n">
-        <v>15.24674967431855</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17.3101154340583</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.3101154340583</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>17.3101154340583</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1621,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>23.63551552234565</v>
+        <v>25.56361495895303</v>
       </c>
       <c r="H14" t="n">
-        <v>26.83414568840334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.83414568840334</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>26.83414568840334</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>7.421026081501822</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
     </row>
     <row r="15">
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>32.98464104045485</v>
       </c>
       <c r="D15" t="n">
-        <v>23.63551552234565</v>
+        <v>37.448502543659</v>
       </c>
       <c r="E15" t="n">
-        <v>26.83414568840334</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>26.83414568840334</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>26.83414568840334</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>37.448502543659</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>17.42191669726542</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1967,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>45.35754004913036</v>
+        <v>37.22756549475385</v>
       </c>
       <c r="S18" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="19">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>49.33949670173322</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.33949670173322</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U20" t="n">
-        <v>49.33949670173322</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>43.45822869488661</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.33949670173322</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>49.33949670173322</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>22.5290045780086</v>
       </c>
       <c r="R21" t="n">
-        <v>20.92922411687801</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="T21" t="n">
-        <v>49.33949670173322</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>37.22756549475386</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>68.8071412682323</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>78.11891606293405</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.181990105187706</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>67.62515116304436</v>
       </c>
       <c r="R23" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="S23" t="n">
-        <v>78.11891606293405</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>78.11891606293379</v>
       </c>
     </row>
     <row r="24">
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>78.11891606293405</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>46.64690897845862</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>78.11891606293405</v>
+        <v>10.78637450103792</v>
       </c>
       <c r="U24" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.181990105187995</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="U26" t="n">
-        <v>78.11891606293405</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>68.8071412682321</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>10.78637450103798</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>78.11891606293405</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>78.11891606293405</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>78.11891606293405</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>68.8071412682323</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>67.62515116304436</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>68.80714126823231</v>
+        <v>1.181990105187841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2915,25 +2915,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.16023228977365</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>68.80714126823223</v>
       </c>
       <c r="W30" t="n">
-        <v>46.64690897845869</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="D32" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="F32" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>68.80714126823203</v>
       </c>
       <c r="X32" t="n">
-        <v>68.80714126823248</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>68.80714126823231</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="T33" t="n">
-        <v>78.11891606293409</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>68.80714126823223</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3268,17 +3268,17 @@
         <v>78.11891606293391</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>78.11891606293391</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.986383835614249</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>61.82075743261791</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>68.80714126823217</v>
       </c>
     </row>
     <row r="36">
@@ -3353,61 +3353,61 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>78.11891606293391</v>
       </c>
-      <c r="F36" t="n">
+      <c r="I36" t="n">
+        <v>78.11891606293391</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>68.80714126823217</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>78.11891606293391</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>78.11891606293391</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>68.80714126823217</v>
       </c>
       <c r="E38" t="n">
-        <v>60.41837542020512</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>68.59488580858888</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="V38" t="n">
-        <v>68.59488580858888</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="W38" t="n">
-        <v>68.59488580858888</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.59488580858888</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>68.59488580858888</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.397608653010989</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>68.59488580858888</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>58.02076676719413</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>68.80714126823217</v>
       </c>
     </row>
     <row r="40">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>44.10296966727671</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>50.07149144786186</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>50.07149144786186</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.07149144786186</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>42.03521223592455</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.07149144786186</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.1029696672767</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07149144786186</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>42.03521223592457</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="W42" t="n">
-        <v>50.07149144786186</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>40.59566224766409</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4021,25 +4021,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>42.03521223592455</v>
       </c>
       <c r="R44" t="n">
-        <v>46.089534795259</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="U44" t="n">
-        <v>46.089534795259</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>46.089534795259</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>46.089534795259</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,28 +4100,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.16023228977373</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>46.089534795259</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="W45" t="n">
-        <v>46.089534795259</v>
+        <v>42.03521223592457</v>
       </c>
       <c r="X45" t="n">
-        <v>18.43542995789036</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.24046173623321</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="C11" t="n">
-        <v>69.24046173623321</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="D11" t="n">
-        <v>69.24046173623321</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="E11" t="n">
-        <v>69.24046173623321</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="F11" t="n">
-        <v>69.24046173623321</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="G11" t="n">
-        <v>53.8397044894468</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="H11" t="n">
-        <v>36.35473940453942</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="I11" t="n">
-        <v>18.86977431963204</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="J11" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="K11" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="L11" t="n">
-        <v>18.52182351444239</v>
+        <v>40.06989772171513</v>
       </c>
       <c r="M11" t="n">
-        <v>35.65883779416011</v>
+        <v>77.14391523993754</v>
       </c>
       <c r="N11" t="n">
-        <v>52.79585207387782</v>
+        <v>114.2179327581599</v>
       </c>
       <c r="O11" t="n">
-        <v>68.62609991633306</v>
+        <v>149.794010174636</v>
       </c>
       <c r="P11" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="R11" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="S11" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="T11" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="U11" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="V11" t="n">
-        <v>69.24046173623321</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="W11" t="n">
-        <v>69.24046173623321</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="X11" t="n">
-        <v>69.24046173623321</v>
+        <v>36.3136994362754</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.24046173623321</v>
+        <v>2.995880203492721</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51.75549665132583</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="C12" t="n">
-        <v>51.75549665132583</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="D12" t="n">
-        <v>51.75549665132583</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="E12" t="n">
-        <v>51.75549665132583</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="F12" t="n">
-        <v>51.75549665132583</v>
+        <v>40.82265044961292</v>
       </c>
       <c r="G12" t="n">
-        <v>51.75549665132583</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="H12" t="n">
-        <v>36.35473940453942</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="I12" t="n">
-        <v>18.86977431963204</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="J12" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="K12" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="L12" t="n">
-        <v>17.82941889708006</v>
+        <v>40.06989772171513</v>
       </c>
       <c r="M12" t="n">
-        <v>34.96643317679778</v>
+        <v>77.14391523993754</v>
       </c>
       <c r="N12" t="n">
-        <v>52.1034474565155</v>
+        <v>114.2179327581599</v>
       </c>
       <c r="O12" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="P12" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.24046173623321</v>
+        <v>149.794010174636</v>
       </c>
       <c r="R12" t="n">
-        <v>69.24046173623321</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="S12" t="n">
-        <v>69.24046173623321</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="T12" t="n">
-        <v>51.75549665132583</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="U12" t="n">
-        <v>51.75549665132583</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="V12" t="n">
-        <v>51.75549665132583</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="W12" t="n">
-        <v>51.75549665132583</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="X12" t="n">
-        <v>51.75549665132583</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="Y12" t="n">
-        <v>51.75549665132583</v>
+        <v>111.9672399285158</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="C13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="D13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="E13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="F13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="G13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="H13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="I13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="J13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="K13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="L13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="M13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="N13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="O13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="P13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="R13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="S13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="T13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="U13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="V13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="W13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="X13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.384809234724664</v>
+        <v>2.995880203492721</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107.3365827536134</v>
+        <v>36.3136994362754</v>
       </c>
       <c r="C14" t="n">
-        <v>107.3365827536134</v>
+        <v>36.3136994362754</v>
       </c>
       <c r="D14" t="n">
-        <v>107.3365827536134</v>
+        <v>36.3136994362754</v>
       </c>
       <c r="E14" t="n">
-        <v>107.3365827536134</v>
+        <v>36.3136994362754</v>
       </c>
       <c r="F14" t="n">
-        <v>107.3365827536134</v>
+        <v>36.3136994362754</v>
       </c>
       <c r="G14" t="n">
-        <v>83.46232465023391</v>
+        <v>10.49186614440365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.35712698518002</v>
+        <v>10.49186614440365</v>
       </c>
       <c r="I14" t="n">
-        <v>29.25192932012614</v>
+        <v>10.49186614440365</v>
       </c>
       <c r="J14" t="n">
-        <v>2.146731655072267</v>
+        <v>10.49186614440365</v>
       </c>
       <c r="K14" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="L14" t="n">
-        <v>28.71253588659157</v>
+        <v>40.06989772171513</v>
       </c>
       <c r="M14" t="n">
-        <v>55.27834011811088</v>
+        <v>77.14391523993754</v>
       </c>
       <c r="N14" t="n">
-        <v>69.50553226974603</v>
+        <v>112.7199926564136</v>
       </c>
       <c r="O14" t="n">
-        <v>96.07133650126534</v>
+        <v>149.794010174636</v>
       </c>
       <c r="P14" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="R14" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="T14" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="U14" t="n">
-        <v>107.3365827536134</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="V14" t="n">
-        <v>107.3365827536134</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="W14" t="n">
-        <v>107.3365827536134</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="X14" t="n">
-        <v>107.3365827536134</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.3365827536134</v>
+        <v>36.3136994362754</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.3365827536134</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="C15" t="n">
-        <v>107.3365827536134</v>
+        <v>40.82265044961292</v>
       </c>
       <c r="D15" t="n">
-        <v>83.46232465023391</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="E15" t="n">
-        <v>56.35712698518002</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="F15" t="n">
-        <v>29.25192932012614</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="G15" t="n">
-        <v>29.25192932012614</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="H15" t="n">
-        <v>29.25192932012614</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="I15" t="n">
-        <v>29.25192932012614</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="J15" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="K15" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="L15" t="n">
-        <v>27.63917005905543</v>
+        <v>10.50655035919712</v>
       </c>
       <c r="M15" t="n">
-        <v>54.20497429057474</v>
+        <v>47.58056787741953</v>
       </c>
       <c r="N15" t="n">
-        <v>80.77077852209405</v>
+        <v>84.65458539564194</v>
       </c>
       <c r="O15" t="n">
-        <v>107.3365827536134</v>
+        <v>121.7286029138644</v>
       </c>
       <c r="P15" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="R15" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="S15" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="T15" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="U15" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="V15" t="n">
-        <v>107.3365827536134</v>
+        <v>149.794010174636</v>
       </c>
       <c r="W15" t="n">
-        <v>107.3365827536134</v>
+        <v>111.9672399285158</v>
       </c>
       <c r="X15" t="n">
-        <v>107.3365827536134</v>
+        <v>74.1404696823956</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.3365827536134</v>
+        <v>74.1404696823956</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="C16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="D16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="E16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="F16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="G16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="H16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="I16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="J16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="K16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="L16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="M16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="N16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="O16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="P16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="R16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="S16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="T16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="U16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="V16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="W16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="X16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.146731655072267</v>
+        <v>2.995880203492721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>181.4301601965215</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C17" t="n">
-        <v>181.4301601965215</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D17" t="n">
-        <v>181.4301601965215</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E17" t="n">
-        <v>181.4301601965215</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F17" t="n">
-        <v>181.4301601965215</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G17" t="n">
-        <v>141.0756942619012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H17" t="n">
-        <v>95.25999724257764</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I17" t="n">
-        <v>49.44430022325403</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J17" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K17" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L17" t="n">
-        <v>32.76377984426648</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M17" t="n">
-        <v>77.66774449290554</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N17" t="n">
-        <v>122.5717091415446</v>
+        <v>197.7239375148261</v>
       </c>
       <c r="O17" t="n">
-        <v>167.4756737901837</v>
+        <v>264.8890196810781</v>
       </c>
       <c r="P17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W17" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="X17" t="n">
-        <v>181.4301601965215</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="Y17" t="n">
-        <v>181.4301601965215</v>
+        <v>142.4850921743407</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.22649885773388</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C18" t="n">
-        <v>21.22649885773388</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D18" t="n">
-        <v>21.22649885773388</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E18" t="n">
-        <v>21.22649885773388</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F18" t="n">
-        <v>21.22649885773388</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G18" t="n">
-        <v>21.22649885773388</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H18" t="n">
-        <v>21.22649885773388</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I18" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J18" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K18" t="n">
-        <v>31.89429715218322</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L18" t="n">
-        <v>62.67575295910012</v>
+        <v>72.59256355342397</v>
       </c>
       <c r="M18" t="n">
-        <v>107.5797176077392</v>
+        <v>117.496528202063</v>
       </c>
       <c r="N18" t="n">
-        <v>152.4836822563782</v>
+        <v>184.6616103683151</v>
       </c>
       <c r="O18" t="n">
-        <v>181.4301601965215</v>
+        <v>251.8266925345672</v>
       </c>
       <c r="P18" t="n">
-        <v>181.4301601965215</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6735899157047</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="R18" t="n">
-        <v>112.8578928963811</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="S18" t="n">
-        <v>67.04219587705748</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="T18" t="n">
-        <v>21.22649885773388</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="U18" t="n">
-        <v>21.22649885773388</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V18" t="n">
-        <v>21.22649885773388</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="W18" t="n">
-        <v>21.22649885773388</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X18" t="n">
-        <v>21.22649885773388</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.22649885773388</v>
+        <v>73.9562867807563</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.628603203930429</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.947159736138658</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="C20" t="n">
-        <v>3.947159736138658</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D20" t="n">
-        <v>3.947159736138658</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="E20" t="n">
-        <v>3.947159736138658</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="F20" t="n">
-        <v>3.947159736138658</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="G20" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H20" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I20" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J20" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K20" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L20" t="n">
-        <v>52.79326147085455</v>
+        <v>63.39377318232184</v>
       </c>
       <c r="M20" t="n">
-        <v>85.71129693116333</v>
+        <v>130.5588553485739</v>
       </c>
       <c r="N20" t="n">
-        <v>134.5573986658792</v>
+        <v>197.723937514826</v>
       </c>
       <c r="O20" t="n">
-        <v>183.4035004005951</v>
+        <v>257.4195829522565</v>
       </c>
       <c r="P20" t="n">
-        <v>197.3579868069329</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.5201113506367</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R20" t="n">
-        <v>147.5201113506367</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68223589434052</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68223589434052</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="U20" t="n">
-        <v>47.84436043804433</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V20" t="n">
-        <v>47.84436043804433</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W20" t="n">
-        <v>3.947159736138658</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="X20" t="n">
-        <v>3.947159736138658</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.947159736138658</v>
+        <v>134.3164585714254</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>53.78503519243485</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C21" t="n">
-        <v>53.78503519243485</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D21" t="n">
-        <v>53.78503519243485</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E21" t="n">
-        <v>53.78503519243485</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F21" t="n">
-        <v>53.78503519243485</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G21" t="n">
-        <v>53.78503519243485</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H21" t="n">
-        <v>53.78503519243485</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I21" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J21" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K21" t="n">
-        <v>3.947159736138658</v>
+        <v>33.69317533542468</v>
       </c>
       <c r="L21" t="n">
-        <v>52.79326147085455</v>
+        <v>47.91358294467373</v>
       </c>
       <c r="M21" t="n">
-        <v>99.66578333750113</v>
+        <v>92.81754759331277</v>
       </c>
       <c r="N21" t="n">
-        <v>148.511885072217</v>
+        <v>159.9826297595649</v>
       </c>
       <c r="O21" t="n">
-        <v>197.3579868069329</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="P21" t="n">
-        <v>197.3579868069329</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.6014165261161</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="R21" t="n">
-        <v>153.4607861050272</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="S21" t="n">
-        <v>153.4607861050272</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="T21" t="n">
-        <v>103.622910648731</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="U21" t="n">
-        <v>103.622910648731</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="V21" t="n">
-        <v>103.622910648731</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="W21" t="n">
-        <v>103.622910648731</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="X21" t="n">
-        <v>103.622910648731</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y21" t="n">
-        <v>103.622910648731</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.947159736138658</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.6596722054048</v>
+        <v>7.443442684214205</v>
       </c>
       <c r="C23" t="n">
-        <v>154.6596722054048</v>
+        <v>7.443442684214205</v>
       </c>
       <c r="D23" t="n">
-        <v>85.15750930820043</v>
+        <v>7.443442684214205</v>
       </c>
       <c r="E23" t="n">
-        <v>6.249513285034724</v>
+        <v>7.443442684214205</v>
       </c>
       <c r="F23" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="G23" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="H23" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="I23" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="J23" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="K23" t="n">
-        <v>6.929473467016237</v>
+        <v>6.929473467016123</v>
       </c>
       <c r="L23" t="n">
-        <v>65.73931599410635</v>
+        <v>65.73931599410615</v>
       </c>
       <c r="M23" t="n">
-        <v>143.0770428964111</v>
+        <v>143.0770428964106</v>
       </c>
       <c r="N23" t="n">
-        <v>220.4147697987157</v>
+        <v>220.4147697987151</v>
       </c>
       <c r="O23" t="n">
-        <v>297.7524967010205</v>
+        <v>297.7524967010195</v>
       </c>
       <c r="P23" t="n">
-        <v>312.4756642517362</v>
+        <v>312.4756642517352</v>
       </c>
       <c r="Q23" t="n">
-        <v>312.4756642517362</v>
+        <v>244.1674307537106</v>
       </c>
       <c r="R23" t="n">
-        <v>233.5676682285705</v>
+        <v>165.2594347305451</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6596722054048</v>
+        <v>165.2594347305451</v>
       </c>
       <c r="T23" t="n">
-        <v>154.6596722054048</v>
+        <v>165.2594347305451</v>
       </c>
       <c r="U23" t="n">
-        <v>154.6596722054048</v>
+        <v>165.2594347305451</v>
       </c>
       <c r="V23" t="n">
-        <v>154.6596722054048</v>
+        <v>86.35143870737966</v>
       </c>
       <c r="W23" t="n">
-        <v>154.6596722054048</v>
+        <v>86.35143870737966</v>
       </c>
       <c r="X23" t="n">
-        <v>154.6596722054048</v>
+        <v>86.35143870737966</v>
       </c>
       <c r="Y23" t="n">
-        <v>154.6596722054048</v>
+        <v>7.443442684214205</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="C24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="D24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="E24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="F24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="G24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="H24" t="n">
-        <v>53.36760316226565</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="I24" t="n">
-        <v>6.249513285034724</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="J24" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="K24" t="n">
-        <v>34.97704472787883</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="L24" t="n">
-        <v>89.89127349662364</v>
+        <v>83.58724018733916</v>
       </c>
       <c r="M24" t="n">
-        <v>167.2290003989283</v>
+        <v>129.2158796346456</v>
       </c>
       <c r="N24" t="n">
-        <v>235.1379373494315</v>
+        <v>197.1248165851486</v>
       </c>
       <c r="O24" t="n">
-        <v>312.4756642517362</v>
+        <v>235.1379373494307</v>
       </c>
       <c r="P24" t="n">
-        <v>312.4756642517362</v>
+        <v>312.4756642517352</v>
       </c>
       <c r="Q24" t="n">
-        <v>290.0915912317628</v>
+        <v>312.4756642517352</v>
       </c>
       <c r="R24" t="n">
-        <v>290.0915912317628</v>
+        <v>312.4756642517352</v>
       </c>
       <c r="S24" t="n">
-        <v>290.0915912317628</v>
+        <v>312.4756642517352</v>
       </c>
       <c r="T24" t="n">
-        <v>211.1835952085971</v>
+        <v>301.580336472909</v>
       </c>
       <c r="U24" t="n">
-        <v>132.2755991854314</v>
+        <v>222.6723404497435</v>
       </c>
       <c r="V24" t="n">
-        <v>132.2755991854314</v>
+        <v>143.7643444265781</v>
       </c>
       <c r="W24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="X24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="Y24" t="n">
-        <v>132.2755991854314</v>
+        <v>64.85634840341262</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="C25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="D25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="E25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="F25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="G25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="H25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="I25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="J25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="K25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="L25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="M25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="N25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="O25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="P25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="R25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="S25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="T25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="U25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="V25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="W25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="X25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034704</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="C26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="D26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="E26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="F26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="G26" t="n">
-        <v>7.443442684214517</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="H26" t="n">
-        <v>7.443442684214517</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="I26" t="n">
-        <v>7.443442684214517</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="J26" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="K26" t="n">
-        <v>6.929473467016251</v>
+        <v>6.929473467016066</v>
       </c>
       <c r="L26" t="n">
-        <v>65.73931599410635</v>
+        <v>65.73931599410616</v>
       </c>
       <c r="M26" t="n">
-        <v>143.0770428964111</v>
+        <v>143.0770428964107</v>
       </c>
       <c r="N26" t="n">
-        <v>220.4147697987158</v>
+        <v>220.4147697987152</v>
       </c>
       <c r="O26" t="n">
-        <v>297.7524967010205</v>
+        <v>297.7524967010198</v>
       </c>
       <c r="P26" t="n">
-        <v>312.4756642517362</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="Q26" t="n">
-        <v>244.1674307537116</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="R26" t="n">
-        <v>165.2594347305459</v>
+        <v>233.5676682285699</v>
       </c>
       <c r="S26" t="n">
-        <v>165.2594347305459</v>
+        <v>233.5676682285699</v>
       </c>
       <c r="T26" t="n">
-        <v>86.35143870738023</v>
+        <v>154.6596722054044</v>
       </c>
       <c r="U26" t="n">
-        <v>7.443442684214517</v>
+        <v>154.6596722054044</v>
       </c>
       <c r="V26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="W26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="X26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.443442684214517</v>
+        <v>85.15750930820023</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="C27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="D27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="E27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="F27" t="n">
-        <v>6.249513285034724</v>
+        <v>233.5676682285699</v>
       </c>
       <c r="G27" t="n">
-        <v>6.249513285034724</v>
+        <v>154.6596722054044</v>
       </c>
       <c r="H27" t="n">
-        <v>6.249513285034724</v>
+        <v>143.7643444265781</v>
       </c>
       <c r="I27" t="n">
-        <v>6.249513285034724</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="J27" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="K27" t="n">
-        <v>34.97704472787883</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="L27" t="n">
-        <v>91.97340120771696</v>
+        <v>60.26431375271855</v>
       </c>
       <c r="M27" t="n">
-        <v>137.6020406550234</v>
+        <v>137.6020406550231</v>
       </c>
       <c r="N27" t="n">
-        <v>205.5109776055265</v>
+        <v>205.5109776055261</v>
       </c>
       <c r="O27" t="n">
-        <v>235.1379373494315</v>
+        <v>235.1379373494309</v>
       </c>
       <c r="P27" t="n">
-        <v>312.4756642517362</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="Q27" t="n">
-        <v>312.4756642517362</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="R27" t="n">
-        <v>312.4756642517362</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="S27" t="n">
-        <v>233.5676682285705</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="T27" t="n">
-        <v>154.6596722054048</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="U27" t="n">
-        <v>75.75167618223907</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="V27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="W27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="X27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.249513285034724</v>
+        <v>312.4756642517355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="C28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="D28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="E28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="F28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="G28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="H28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="I28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="J28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="K28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="L28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="M28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="N28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="O28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="P28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="R28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="S28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="T28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="U28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="V28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="W28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="X28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.249513285034724</v>
+        <v>6.249513285034709</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.249513285034728</v>
+        <v>164.065505331366</v>
       </c>
       <c r="C29" t="n">
-        <v>6.249513285034728</v>
+        <v>164.065505331366</v>
       </c>
       <c r="D29" t="n">
-        <v>6.249513285034728</v>
+        <v>164.065505331366</v>
       </c>
       <c r="E29" t="n">
-        <v>6.249513285034728</v>
+        <v>164.065505331366</v>
       </c>
       <c r="F29" t="n">
-        <v>6.249513285034728</v>
+        <v>164.065505331366</v>
       </c>
       <c r="G29" t="n">
-        <v>6.249513285034728</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="H29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J29" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K29" t="n">
-        <v>6.929473467016243</v>
+        <v>6.929473467016063</v>
       </c>
       <c r="L29" t="n">
-        <v>65.73931599410651</v>
+        <v>65.73931599410616</v>
       </c>
       <c r="M29" t="n">
-        <v>143.0770428964111</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N29" t="n">
-        <v>220.4147697987158</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O29" t="n">
-        <v>297.7524967010206</v>
+        <v>297.7524967010202</v>
       </c>
       <c r="P29" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q29" t="n">
-        <v>312.4756642517364</v>
+        <v>244.1674307537112</v>
       </c>
       <c r="R29" t="n">
-        <v>312.4756642517364</v>
+        <v>244.1674307537112</v>
       </c>
       <c r="S29" t="n">
-        <v>233.5676682285706</v>
+        <v>244.1674307537112</v>
       </c>
       <c r="T29" t="n">
-        <v>154.6596722054048</v>
+        <v>244.1674307537112</v>
       </c>
       <c r="U29" t="n">
-        <v>75.75167618223908</v>
+        <v>244.1674307537112</v>
       </c>
       <c r="V29" t="n">
-        <v>6.249513285034728</v>
+        <v>242.9735013545315</v>
       </c>
       <c r="W29" t="n">
-        <v>6.249513285034728</v>
+        <v>242.9735013545315</v>
       </c>
       <c r="X29" t="n">
-        <v>6.249513285034728</v>
+        <v>242.9735013545315</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.249513285034728</v>
+        <v>242.9735013545315</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.15750930820047</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="C30" t="n">
-        <v>6.249513285034728</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="D30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J30" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K30" t="n">
-        <v>34.97704472787888</v>
+        <v>34.97704472787876</v>
       </c>
       <c r="L30" t="n">
-        <v>89.89127349662371</v>
+        <v>49.81844984289256</v>
       </c>
       <c r="M30" t="n">
-        <v>167.2290003989285</v>
+        <v>127.1561767451972</v>
       </c>
       <c r="N30" t="n">
-        <v>235.1379373494316</v>
+        <v>204.4939036475018</v>
       </c>
       <c r="O30" t="n">
-        <v>312.4756642517364</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P30" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.091591231763</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="R30" t="n">
-        <v>211.1835952085972</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="S30" t="n">
-        <v>211.1835952085972</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="T30" t="n">
-        <v>132.2755991854315</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="U30" t="n">
-        <v>132.2755991854315</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="V30" t="n">
-        <v>132.2755991854315</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="W30" t="n">
-        <v>85.15750930820047</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="X30" t="n">
-        <v>85.15750930820047</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="Y30" t="n">
-        <v>85.15750930820047</v>
+        <v>85.15750930820033</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="M31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="N31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="O31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="P31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="R31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="S31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="T31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="U31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="V31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="W31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>242.973501354532</v>
+        <v>164.065505331366</v>
       </c>
       <c r="C32" t="n">
-        <v>242.973501354532</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="D32" t="n">
-        <v>164.0655053313662</v>
+        <v>85.15750930820033</v>
       </c>
       <c r="E32" t="n">
-        <v>164.0655053313662</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F32" t="n">
-        <v>85.15750930820047</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G32" t="n">
-        <v>85.15750930820047</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H32" t="n">
-        <v>85.15750930820047</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I32" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J32" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K32" t="n">
-        <v>6.929473467016243</v>
+        <v>6.929473467016063</v>
       </c>
       <c r="L32" t="n">
-        <v>65.73931599410651</v>
+        <v>65.73931599410616</v>
       </c>
       <c r="M32" t="n">
-        <v>143.0770428964113</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N32" t="n">
-        <v>220.414769798716</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O32" t="n">
-        <v>297.7524967010207</v>
+        <v>297.75249670102</v>
       </c>
       <c r="P32" t="n">
-        <v>312.4756642517365</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="Q32" t="n">
-        <v>312.4756642517365</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="R32" t="n">
-        <v>312.4756642517365</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="S32" t="n">
-        <v>312.4756642517365</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="T32" t="n">
-        <v>312.4756642517365</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="U32" t="n">
-        <v>312.4756642517365</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="V32" t="n">
-        <v>312.4756642517365</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="W32" t="n">
-        <v>312.4756642517365</v>
+        <v>242.9735013545315</v>
       </c>
       <c r="X32" t="n">
-        <v>242.973501354532</v>
+        <v>164.065505331366</v>
       </c>
       <c r="Y32" t="n">
-        <v>242.973501354532</v>
+        <v>164.065505331366</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>154.6596722054048</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C33" t="n">
-        <v>75.75167618223908</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J33" t="n">
-        <v>6.249513285034728</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K33" t="n">
-        <v>34.97704472787888</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L33" t="n">
-        <v>91.97340120771685</v>
+        <v>21.09091840004851</v>
       </c>
       <c r="M33" t="n">
-        <v>137.6020406550234</v>
+        <v>89.89127349662358</v>
       </c>
       <c r="N33" t="n">
-        <v>205.5109776055266</v>
+        <v>157.8002104471266</v>
       </c>
       <c r="O33" t="n">
-        <v>235.1379373494316</v>
+        <v>235.1379373494312</v>
       </c>
       <c r="P33" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="Q33" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="R33" t="n">
-        <v>312.4756642517364</v>
+        <v>312.4756642517358</v>
       </c>
       <c r="S33" t="n">
-        <v>312.4756642517364</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="T33" t="n">
-        <v>233.5676682285706</v>
+        <v>233.5676682285702</v>
       </c>
       <c r="U33" t="n">
-        <v>154.6596722054048</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="V33" t="n">
-        <v>154.6596722054048</v>
+        <v>154.6596722054046</v>
       </c>
       <c r="W33" t="n">
-        <v>154.6596722054048</v>
+        <v>75.751676182239</v>
       </c>
       <c r="X33" t="n">
-        <v>154.6596722054048</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y33" t="n">
-        <v>154.6596722054048</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="C34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="D34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="E34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="F34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="G34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="H34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="I34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="J34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="K34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="L34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="M34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="N34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="O34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="P34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Q34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="R34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="S34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="T34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="U34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="V34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="W34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="X34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
       <c r="Y34" t="n">
-        <v>312.4756642517364</v>
+        <v>6.249513285034716</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154.6596722054045</v>
+        <v>85.15750930820028</v>
       </c>
       <c r="C35" t="n">
-        <v>75.75167618223892</v>
+        <v>85.15750930820028</v>
       </c>
       <c r="D35" t="n">
-        <v>75.75167618223892</v>
+        <v>85.15750930820028</v>
       </c>
       <c r="E35" t="n">
-        <v>75.75167618223892</v>
+        <v>85.15750930820028</v>
       </c>
       <c r="F35" t="n">
-        <v>75.75167618223892</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="G35" t="n">
-        <v>75.75167618223892</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="H35" t="n">
-        <v>75.75167618223892</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="I35" t="n">
-        <v>68.6947228129316</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="J35" t="n">
         <v>6.249513285034713</v>
@@ -6946,10 +6946,10 @@
         <v>65.73931599410616</v>
       </c>
       <c r="M35" t="n">
-        <v>143.0770428964108</v>
+        <v>143.0770428964109</v>
       </c>
       <c r="N35" t="n">
-        <v>220.4147697987155</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O35" t="n">
         <v>297.75249670102</v>
@@ -6982,7 +6982,7 @@
         <v>233.5676682285701</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.5676682285701</v>
+        <v>164.0655053313658</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>154.6596722054045</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="C36" t="n">
-        <v>154.6596722054045</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="D36" t="n">
-        <v>154.6596722054045</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="E36" t="n">
-        <v>75.75167618223892</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="F36" t="n">
-        <v>6.249513285034713</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="G36" t="n">
-        <v>6.249513285034713</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="H36" t="n">
-        <v>6.249513285034713</v>
+        <v>85.15750930820028</v>
       </c>
       <c r="I36" t="n">
         <v>6.249513285034713</v>
@@ -7019,16 +7019,16 @@
         <v>6.249513285034713</v>
       </c>
       <c r="K36" t="n">
-        <v>6.249513285034713</v>
+        <v>34.97704472787876</v>
       </c>
       <c r="L36" t="n">
-        <v>83.58724018733928</v>
+        <v>91.97340120771679</v>
       </c>
       <c r="M36" t="n">
-        <v>129.2158796346457</v>
+        <v>137.6020406550232</v>
       </c>
       <c r="N36" t="n">
-        <v>197.1248165851487</v>
+        <v>205.5109776055262</v>
       </c>
       <c r="O36" t="n">
         <v>235.1379373494311</v>
@@ -7040,28 +7040,28 @@
         <v>312.4756642517356</v>
       </c>
       <c r="R36" t="n">
-        <v>233.5676682285701</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="S36" t="n">
-        <v>233.5676682285701</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="T36" t="n">
-        <v>233.5676682285701</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="U36" t="n">
-        <v>233.5676682285701</v>
+        <v>242.9735013545314</v>
       </c>
       <c r="V36" t="n">
-        <v>154.6596722054045</v>
+        <v>242.9735013545314</v>
       </c>
       <c r="W36" t="n">
-        <v>154.6596722054045</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="X36" t="n">
-        <v>154.6596722054045</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="Y36" t="n">
-        <v>154.6596722054045</v>
+        <v>164.0655053313658</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="C37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="D37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="E37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="F37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="G37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="H37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="I37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="J37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="K37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="L37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="M37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="N37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="O37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="P37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="Q37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="R37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="S37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="T37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="U37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="V37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="W37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="X37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="Y37" t="n">
-        <v>312.4756642517356</v>
+        <v>6.249513285034713</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>66.51625290529834</v>
+        <v>75.75167618223892</v>
       </c>
       <c r="C38" t="n">
-        <v>66.51625290529834</v>
+        <v>75.75167618223892</v>
       </c>
       <c r="D38" t="n">
-        <v>66.51625290529834</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="E38" t="n">
-        <v>5.487590864687111</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="F38" t="n">
-        <v>5.487590864687111</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="G38" t="n">
-        <v>5.487590864687111</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="H38" t="n">
-        <v>5.487590864687111</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="I38" t="n">
-        <v>5.487590864687111</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="J38" t="n">
-        <v>5.487590864687111</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="K38" t="n">
-        <v>6.167551046668457</v>
+        <v>6.929473467016059</v>
       </c>
       <c r="L38" t="n">
-        <v>64.97739357375855</v>
+        <v>65.73931599410616</v>
       </c>
       <c r="M38" t="n">
-        <v>132.8863305242616</v>
+        <v>143.0770428964108</v>
       </c>
       <c r="N38" t="n">
-        <v>191.7474387331369</v>
+        <v>220.4147697987154</v>
       </c>
       <c r="O38" t="n">
-        <v>259.6563756836399</v>
+        <v>297.75249670102</v>
       </c>
       <c r="P38" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="Q38" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="R38" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="S38" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="T38" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="U38" t="n">
-        <v>205.0917797913365</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="V38" t="n">
-        <v>135.8040163483174</v>
+        <v>154.6596722054045</v>
       </c>
       <c r="W38" t="n">
-        <v>66.51625290529834</v>
+        <v>75.75167618223892</v>
       </c>
       <c r="X38" t="n">
-        <v>66.51625290529834</v>
+        <v>75.75167618223892</v>
       </c>
       <c r="Y38" t="n">
-        <v>66.51625290529834</v>
+        <v>75.75167618223892</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>205.0917797913365</v>
+        <v>164.0655053313658</v>
       </c>
       <c r="C39" t="n">
-        <v>135.8040163483174</v>
+        <v>85.15750930820028</v>
       </c>
       <c r="D39" t="n">
-        <v>135.8040163483174</v>
+        <v>85.15750930820028</v>
       </c>
       <c r="E39" t="n">
-        <v>135.8040163483174</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="F39" t="n">
-        <v>135.8040163483174</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="G39" t="n">
-        <v>135.8040163483174</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="H39" t="n">
-        <v>133.3821894260841</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="I39" t="n">
-        <v>64.09442598306502</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="J39" t="n">
-        <v>5.487590864687111</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="K39" t="n">
-        <v>5.487590864687111</v>
+        <v>34.97704472787876</v>
       </c>
       <c r="L39" t="n">
-        <v>73.3965278151901</v>
+        <v>49.81844984289255</v>
       </c>
       <c r="M39" t="n">
-        <v>119.0251672624965</v>
+        <v>95.44708929019896</v>
       </c>
       <c r="N39" t="n">
-        <v>186.9341042129995</v>
+        <v>163.356026240702</v>
       </c>
       <c r="O39" t="n">
-        <v>254.8430411635025</v>
+        <v>235.1379373494311</v>
       </c>
       <c r="P39" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="Q39" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="R39" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="S39" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="T39" t="n">
-        <v>274.3795432343555</v>
+        <v>312.4756642517356</v>
       </c>
       <c r="U39" t="n">
-        <v>274.3795432343555</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="V39" t="n">
-        <v>274.3795432343555</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="W39" t="n">
-        <v>274.3795432343555</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="X39" t="n">
-        <v>274.3795432343555</v>
+        <v>233.5676682285701</v>
       </c>
       <c r="Y39" t="n">
-        <v>274.3795432343555</v>
+        <v>164.0655053313658</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="C40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="D40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="E40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="F40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="G40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="H40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="I40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="J40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="K40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="L40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="N40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="O40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="P40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="Q40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="R40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="S40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="T40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="U40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="V40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="W40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="X40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
       <c r="Y40" t="n">
-        <v>274.3795432343555</v>
+        <v>6.249513285034713</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>200.2859657914474</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="C41" t="n">
-        <v>200.2859657914474</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="D41" t="n">
-        <v>200.2859657914474</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="E41" t="n">
-        <v>200.2859657914474</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="F41" t="n">
-        <v>155.737511582077</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="G41" t="n">
-        <v>105.1602474933277</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="H41" t="n">
-        <v>54.58298340457831</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="I41" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="J41" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="K41" t="n">
-        <v>4.685679497810295</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="L41" t="n">
-        <v>54.25645603119354</v>
+        <v>34.43245075423704</v>
       </c>
       <c r="M41" t="n">
-        <v>86.42124517396532</v>
+        <v>81.67911300851193</v>
       </c>
       <c r="N41" t="n">
-        <v>135.9920217073486</v>
+        <v>128.9257752627868</v>
       </c>
       <c r="O41" t="n">
-        <v>185.5627982407318</v>
+        <v>176.1724375170617</v>
       </c>
       <c r="P41" t="n">
-        <v>200.2859657914474</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.2859657914474</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="R41" t="n">
-        <v>200.2859657914474</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="S41" t="n">
-        <v>200.2859657914474</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="T41" t="n">
-        <v>200.2859657914474</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="U41" t="n">
-        <v>200.2859657914474</v>
+        <v>148.4357947284596</v>
       </c>
       <c r="V41" t="n">
-        <v>200.2859657914474</v>
+        <v>100.2298338527583</v>
       </c>
       <c r="W41" t="n">
-        <v>200.2859657914474</v>
+        <v>52.0238729770569</v>
       </c>
       <c r="X41" t="n">
-        <v>200.2859657914474</v>
+        <v>52.0238729770569</v>
       </c>
       <c r="Y41" t="n">
-        <v>200.2859657914474</v>
+        <v>3.817912101355547</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.13143761394872</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="C42" t="n">
-        <v>99.13143761394872</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="D42" t="n">
-        <v>99.13143761394872</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="E42" t="n">
-        <v>99.13143761394872</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="F42" t="n">
-        <v>99.13143761394872</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="G42" t="n">
-        <v>99.13143761394872</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="H42" t="n">
-        <v>99.13143761394872</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="I42" t="n">
-        <v>54.58298340457831</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="J42" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="K42" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="L42" t="n">
-        <v>25.88881353346967</v>
+        <v>51.06457435563044</v>
       </c>
       <c r="M42" t="n">
-        <v>71.51745298077607</v>
+        <v>96.69321380293684</v>
       </c>
       <c r="N42" t="n">
-        <v>121.0882295141593</v>
+        <v>143.9398760572117</v>
       </c>
       <c r="O42" t="n">
-        <v>150.7151892580642</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="P42" t="n">
-        <v>200.2859657914474</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.2859657914474</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="R42" t="n">
-        <v>200.2859657914474</v>
+        <v>142.689644192076</v>
       </c>
       <c r="S42" t="n">
-        <v>200.2859657914474</v>
+        <v>94.48368331637465</v>
       </c>
       <c r="T42" t="n">
-        <v>200.2859657914474</v>
+        <v>94.48368331637465</v>
       </c>
       <c r="U42" t="n">
-        <v>200.2859657914474</v>
+        <v>52.0238729770569</v>
       </c>
       <c r="V42" t="n">
-        <v>200.2859657914474</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="W42" t="n">
-        <v>149.7087017026981</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="X42" t="n">
-        <v>149.7087017026981</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="Y42" t="n">
-        <v>149.7087017026981</v>
+        <v>3.817912101355547</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="C43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="D43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="E43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="F43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="G43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="H43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="I43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="J43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="K43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="L43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="M43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="N43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="O43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="P43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="R43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="S43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="T43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="U43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="V43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="W43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="X43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.005719315828949</v>
+        <v>3.817912101355547</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.69288222570567</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="C44" t="n">
-        <v>44.69288222570567</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="D44" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="E44" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="F44" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="G44" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="H44" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="I44" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="J44" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="K44" t="n">
-        <v>4.367122965602066</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="L44" t="n">
-        <v>32.74905328840116</v>
+        <v>34.43245075423704</v>
       </c>
       <c r="M44" t="n">
-        <v>78.37769273570757</v>
+        <v>81.67911300851193</v>
       </c>
       <c r="N44" t="n">
-        <v>124.006332183014</v>
+        <v>128.9257752627868</v>
       </c>
       <c r="O44" t="n">
-        <v>169.6349716303204</v>
+        <v>176.1724375170617</v>
       </c>
       <c r="P44" t="n">
-        <v>184.358139181036</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="Q44" t="n">
-        <v>184.358139181036</v>
+        <v>148.4357947284596</v>
       </c>
       <c r="R44" t="n">
-        <v>137.8030535292592</v>
+        <v>100.2298338527583</v>
       </c>
       <c r="S44" t="n">
-        <v>137.8030535292592</v>
+        <v>52.0238729770569</v>
       </c>
       <c r="T44" t="n">
-        <v>137.8030535292592</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="U44" t="n">
-        <v>91.24796787748244</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="V44" t="n">
-        <v>91.24796787748244</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="W44" t="n">
-        <v>44.69288222570567</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="X44" t="n">
-        <v>44.69288222570567</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.69288222570567</v>
+        <v>3.817912101355547</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.24224843539749</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="C45" t="n">
-        <v>50.24224843539749</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="D45" t="n">
-        <v>50.24224843539749</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="E45" t="n">
-        <v>50.24224843539749</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="F45" t="n">
-        <v>50.24224843539749</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="G45" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="H45" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="I45" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="J45" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="K45" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="L45" t="n">
-        <v>49.31580223092713</v>
+        <v>50.77364111192116</v>
       </c>
       <c r="M45" t="n">
-        <v>94.94444167823353</v>
+        <v>96.40228055922756</v>
       </c>
       <c r="N45" t="n">
-        <v>140.5730811255399</v>
+        <v>143.6489428135025</v>
       </c>
       <c r="O45" t="n">
-        <v>184.358139181036</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="P45" t="n">
-        <v>184.358139181036</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="Q45" t="n">
-        <v>161.9740661610625</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="R45" t="n">
-        <v>115.4189805092857</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="S45" t="n">
-        <v>115.4189805092857</v>
+        <v>190.8956050677774</v>
       </c>
       <c r="T45" t="n">
-        <v>115.4189805092857</v>
+        <v>142.689644192076</v>
       </c>
       <c r="U45" t="n">
-        <v>115.4189805092857</v>
+        <v>94.48368331637465</v>
       </c>
       <c r="V45" t="n">
-        <v>115.4189805092857</v>
+        <v>46.27772244067329</v>
       </c>
       <c r="W45" t="n">
-        <v>68.86389485750897</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="X45" t="n">
-        <v>50.24224843539749</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.24224843539749</v>
+        <v>3.817912101355547</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="C46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="D46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="E46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="F46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="G46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="H46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="I46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="J46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="K46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="L46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="M46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="N46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="O46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="P46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="R46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="S46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="T46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="U46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="V46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="W46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="X46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.68716278362072</v>
+        <v>3.817912101355547</v>
       </c>
     </row>
   </sheetData>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>94.50134181136147</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N8" t="n">
-        <v>89.21461903306817</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>42.27423123832551</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M9" t="n">
-        <v>20.73666047215158</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O9" t="n">
-        <v>32.82469745261383</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P9" t="n">
-        <v>54.90492507792075</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>82.13754807711578</v>
+        <v>96.69504749880235</v>
       </c>
       <c r="M11" t="n">
-        <v>42.65872893422997</v>
+        <v>56.58730316909117</v>
       </c>
       <c r="N11" t="n">
-        <v>36.25304271491004</v>
+        <v>50.08113568529848</v>
       </c>
       <c r="O11" t="n">
-        <v>53.57723616085995</v>
+        <v>67.56388674207746</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>77.9615422319315</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>48.30570252268842</v>
+        <v>45.25020972327664</v>
       </c>
       <c r="L12" t="n">
-        <v>13.13266845989021</v>
+        <v>29.86196703284648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>14.12328414369519</v>
       </c>
       <c r="P12" t="n">
-        <v>14.66731777318631</v>
+        <v>11.05404006178154</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,19 +8932,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>79.85523369790673</v>
+        <v>96.69504749880235</v>
       </c>
       <c r="M14" t="n">
-        <v>39.04592594467624</v>
+        <v>56.58730316909117</v>
       </c>
       <c r="N14" t="n">
-        <v>19.96442750419823</v>
+        <v>48.56806487545369</v>
       </c>
       <c r="O14" t="n">
-        <v>51.81577175032567</v>
+        <v>69.07695755192225</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>77.9615422319315</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>41.84182024580264</v>
+        <v>45.25020972327664</v>
       </c>
       <c r="L15" t="n">
-        <v>13.58040199713824</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>15.63635495353998</v>
       </c>
       <c r="P15" t="n">
-        <v>7.023443840735183</v>
+        <v>39.4029362847832</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9169,19 +9169,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>79.46957724290102</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>54.25240332260944</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N17" t="n">
-        <v>47.5804782227554</v>
+        <v>70.06645551327355</v>
       </c>
       <c r="O17" t="n">
-        <v>67.15641528329388</v>
+        <v>89.64239257381203</v>
       </c>
       <c r="P17" t="n">
-        <v>83.66766412458549</v>
+        <v>76.12277853991709</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,10 +9245,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>16.72833151279581</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P18" t="n">
-        <v>5.093443300258059</v>
+        <v>24.83826837503289</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9406,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>99.37960259075945</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>42.14540414247784</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N20" t="n">
-        <v>51.56243487535829</v>
+        <v>70.06645551327361</v>
       </c>
       <c r="O20" t="n">
-        <v>71.13837193589677</v>
+        <v>82.09750698914377</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>34.97544861158266</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.988441634351048</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>20.10063009552795</v>
+        <v>15.43422170973141</v>
       </c>
       <c r="P21" t="n">
-        <v>5.093443300258059</v>
+        <v>72.93696063990666</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>86.06568567569724</v>
+        <v>86.06568567569707</v>
       </c>
       <c r="N23" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921125</v>
       </c>
       <c r="O23" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831365</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514515</v>
       </c>
       <c r="L24" t="n">
-        <v>40.4775996502333</v>
+        <v>63.12759776494006</v>
       </c>
       <c r="M24" t="n">
-        <v>32.02938126767501</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>48.19269409939372</v>
+        <v>8.470869717552823</v>
       </c>
       <c r="P24" t="n">
-        <v>4.541780027677959</v>
+        <v>82.66069609061182</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>86.06568567569724</v>
+        <v>86.06568567569713</v>
       </c>
       <c r="N26" t="n">
-        <v>79.37841942921136</v>
+        <v>79.37841942921131</v>
       </c>
       <c r="O26" t="n">
-        <v>99.00804712831382</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,13 +9956,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514515</v>
       </c>
       <c r="L27" t="n">
-        <v>42.58075895436797</v>
+        <v>39.56908621481823</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>32.02938126767489</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>82.66069609061199</v>
+        <v>82.66069609061188</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,13 +10120,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>86.06568567569698</v>
+        <v>86.06568567569721</v>
       </c>
       <c r="N29" t="n">
-        <v>79.37841942921131</v>
+        <v>79.37841942921139</v>
       </c>
       <c r="O29" t="n">
-        <v>99.00804712831376</v>
+        <v>99.00804712831396</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10196,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>40.47759965023326</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>32.02938126767495</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.524030254345064</v>
       </c>
       <c r="O30" t="n">
-        <v>48.19269409939363</v>
+        <v>1.027347432347998</v>
       </c>
       <c r="P30" t="n">
-        <v>4.541780027677902</v>
+        <v>82.66069609061194</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,10 +10357,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>86.06568567569718</v>
+        <v>86.06568567569721</v>
       </c>
       <c r="N32" t="n">
-        <v>79.37841942921131</v>
+        <v>79.37841942921139</v>
       </c>
       <c r="O32" t="n">
         <v>99.00804712831379</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514515</v>
       </c>
       <c r="L33" t="n">
-        <v>42.58075895436774</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>23.40577338309966</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>48.19269409939366</v>
       </c>
       <c r="P33" t="n">
-        <v>82.66069609061199</v>
+        <v>82.66069609061194</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10667,10 +10667,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>39.74325309514515</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>63.12759776494018</v>
+        <v>42.58075895436792</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>8.47086971755305</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>82.66069609061194</v>
@@ -10831,13 +10831,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>76.54165542135215</v>
+        <v>86.06568567569727</v>
       </c>
       <c r="N38" t="n">
-        <v>60.71516822372729</v>
+        <v>79.37841942921136</v>
       </c>
       <c r="O38" t="n">
-        <v>89.48401687396876</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,10 +10904,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.74325309514515</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>53.60356751059516</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>38.6686638450486</v>
+        <v>42.58075895436791</v>
       </c>
       <c r="P39" t="n">
-        <v>24.27562050328714</v>
+        <v>82.66069609061194</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,19 +11062,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>83.59097880185502</v>
       </c>
       <c r="L41" t="n">
-        <v>99.2595258904839</v>
+        <v>80.11181085967405</v>
       </c>
       <c r="M41" t="n">
-        <v>40.43645561556304</v>
+        <v>55.67067087970759</v>
       </c>
       <c r="N41" t="n">
-        <v>51.33099481413933</v>
+        <v>48.98340463322177</v>
       </c>
       <c r="O41" t="n">
-        <v>70.96062251324173</v>
+        <v>68.61303233232417</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11144,7 +11144,7 @@
         <v>39.74325309514515</v>
       </c>
       <c r="L42" t="n">
-        <v>7.112817275380735</v>
+        <v>32.73258296895061</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>17.50380734006135</v>
       </c>
       <c r="P42" t="n">
-        <v>54.61327147553988</v>
+        <v>4.541780027678016</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,19 +11299,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>83.59097880185502</v>
       </c>
       <c r="L44" t="n">
-        <v>77.8566509302979</v>
+        <v>80.11181085967405</v>
       </c>
       <c r="M44" t="n">
-        <v>54.03630440802226</v>
+        <v>55.67067087970759</v>
       </c>
       <c r="N44" t="n">
-        <v>47.34903816153644</v>
+        <v>48.98340463322177</v>
       </c>
       <c r="O44" t="n">
-        <v>66.97866586063884</v>
+        <v>68.61303233232417</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11381,7 +11381,7 @@
         <v>39.74325309514515</v>
       </c>
       <c r="L45" t="n">
-        <v>31.09821649726527</v>
+        <v>32.4387110056079</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.30110940564764</v>
+        <v>17.79767930340407</v>
       </c>
       <c r="P45" t="n">
         <v>4.541780027678016</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.2098565259836</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H8" t="n">
-        <v>349.9597650259403</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I8" t="n">
-        <v>254.413627538865</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J8" t="n">
-        <v>103.6577574092157</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K8" t="n">
-        <v>62.01598937483024</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L8" t="n">
-        <v>18.3845087542864</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4.934605547775959</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P8" t="n">
-        <v>56.01237276874355</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.8562777625268</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R8" t="n">
-        <v>211.4982239222711</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S8" t="n">
-        <v>235.9346815086628</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T8" t="n">
-        <v>219.4718503679457</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7911763328777</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H9" t="n">
-        <v>137.9016867325838</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I9" t="n">
-        <v>117.4902810648562</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J9" t="n">
-        <v>82.93859734111298</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K9" t="n">
-        <v>13.57083277636242</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.8266610081867</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R9" t="n">
-        <v>155.3651088272201</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S9" t="n">
-        <v>208.3135435403172</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T9" t="n">
-        <v>230.1584524961191</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.247518043053</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H10" t="n">
-        <v>167.6944209426916</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I10" t="n">
-        <v>168.1305865516738</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J10" t="n">
-        <v>133.20905535072</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K10" t="n">
-        <v>88.99056004441432</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L10" t="n">
-        <v>62.96960703121101</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M10" t="n">
-        <v>59.70650310975205</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N10" t="n">
-        <v>47.31542685419204</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O10" t="n">
-        <v>72.58297639552539</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P10" t="n">
-        <v>91.43798011889523</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.7386590351999</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R10" t="n">
-        <v>221.644124959155</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S10" t="n">
-        <v>243.9209403175845</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T10" t="n">
-        <v>218.1427676199599</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23272,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>406.5692789797683</v>
+        <v>421.7806634928118</v>
       </c>
       <c r="H11" t="n">
-        <v>328.6163598988195</v>
+        <v>345.5642918749696</v>
       </c>
       <c r="I11" t="n">
-        <v>221.9204630735074</v>
+        <v>237.8671631275089</v>
       </c>
       <c r="J11" t="n">
-        <v>52.9219936327608</v>
+        <v>67.23053521004991</v>
       </c>
       <c r="K11" t="n">
-        <v>11.91960721504432</v>
+        <v>7.421026081501822</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.32729816123688</v>
+        <v>74.50825860159469</v>
       </c>
       <c r="R11" t="n">
-        <v>186.759433864237</v>
+        <v>184.5379270522924</v>
       </c>
       <c r="S11" t="n">
-        <v>226.9603288778156</v>
+        <v>226.1544452652602</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7478688587177</v>
+        <v>217.5930578652361</v>
       </c>
       <c r="U11" t="n">
-        <v>248.759670103126</v>
+        <v>248.7568408902239</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>275.8559394573641</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>287.9432229356344</v>
       </c>
       <c r="X11" t="n">
-        <v>348.8168793035129</v>
+        <v>311.3683767598539</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>344.9443353547273</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>166.3939250715804</v>
       </c>
       <c r="D12" t="n">
         <v>172.0989423795122</v>
@@ -23348,19 +23348,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>173.9843481253239</v>
+        <v>140.9997070848691</v>
       </c>
       <c r="G12" t="n">
-        <v>160.8199189886855</v>
+        <v>123.3524944155764</v>
       </c>
       <c r="H12" t="n">
-        <v>120.6198593954184</v>
+        <v>135.6838621011</v>
       </c>
       <c r="I12" t="n">
-        <v>92.92523390811505</v>
+        <v>109.5838671878593</v>
       </c>
       <c r="J12" t="n">
-        <v>45.72039474293864</v>
+        <v>61.24279335074469</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.9288861219496</v>
+        <v>26.51350566091041</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2822026531694</v>
+        <v>103.6588744564568</v>
       </c>
       <c r="S12" t="n">
-        <v>204.3995771905641</v>
+        <v>204.0481087926635</v>
       </c>
       <c r="T12" t="n">
-        <v>211.9990017431887</v>
+        <v>229.2328481199458</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6367224081125</v>
+        <v>249.635477537754</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0708604177289</v>
+        <v>169.05499682387</v>
       </c>
       <c r="H13" t="n">
-        <v>166.1237740557184</v>
+        <v>165.9827322848645</v>
       </c>
       <c r="I13" t="n">
-        <v>162.8180099646522</v>
+        <v>162.3409484329702</v>
       </c>
       <c r="J13" t="n">
-        <v>120.7193612403007</v>
+        <v>119.5978051544812</v>
       </c>
       <c r="K13" t="n">
-        <v>68.46615593856912</v>
+        <v>66.6230947611519</v>
       </c>
       <c r="L13" t="n">
-        <v>36.70543608074209</v>
+        <v>34.34695231740241</v>
       </c>
       <c r="M13" t="n">
-        <v>32.0146173509814</v>
+        <v>29.52792690636443</v>
       </c>
       <c r="N13" t="n">
-        <v>20.28199224435693</v>
+        <v>17.85442974048651</v>
       </c>
       <c r="O13" t="n">
-        <v>47.61322404515909</v>
+        <v>45.37097716045777</v>
       </c>
       <c r="P13" t="n">
-        <v>70.07204332514213</v>
+        <v>68.15341375516103</v>
       </c>
       <c r="Q13" t="n">
-        <v>137.9459918819182</v>
+        <v>136.6176322179754</v>
       </c>
       <c r="R13" t="n">
-        <v>213.7009557332152</v>
+        <v>212.9876708675262</v>
       </c>
       <c r="S13" t="n">
-        <v>240.8422797017078</v>
+        <v>240.5658205250951</v>
       </c>
       <c r="T13" t="n">
-        <v>217.387957766302</v>
+        <v>217.3201769561779</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2106606605989</v>
+        <v>291.2097953736612</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>398.1056982805234</v>
+        <v>396.2170485338587</v>
       </c>
       <c r="H14" t="n">
-        <v>318.32613204944</v>
+        <v>345.5642918749696</v>
       </c>
       <c r="I14" t="n">
-        <v>209.5121332675878</v>
+        <v>237.8671631275089</v>
       </c>
       <c r="J14" t="n">
-        <v>37.04814639986841</v>
+        <v>67.23053521004991</v>
       </c>
       <c r="K14" t="n">
-        <v>2.402877584447197</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.24813589678993</v>
+        <v>74.50825860159469</v>
       </c>
       <c r="R14" t="n">
-        <v>182.0598454664264</v>
+        <v>184.5379270522924</v>
       </c>
       <c r="S14" t="n">
-        <v>225.2554854556899</v>
+        <v>226.1544452652602</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4203668475118</v>
+        <v>217.5930578652361</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7536849150285</v>
+        <v>211.3083383465649</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>275.8559394573641</v>
       </c>
       <c r="W14" t="n">
         <v>325.3917254792934</v>
@@ -23563,7 +23563,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>340.4804738515231</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
-        <v>203.8424276152394</v>
+        <v>170.8577865747845</v>
       </c>
       <c r="D15" t="n">
-        <v>148.4634268571666</v>
+        <v>134.6504398358532</v>
       </c>
       <c r="E15" t="n">
-        <v>160.6263996091995</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>147.1502024369206</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7798895142816</v>
+        <v>160.8009969592354</v>
       </c>
       <c r="H15" t="n">
-        <v>135.4800086195725</v>
+        <v>135.6838621011</v>
       </c>
       <c r="I15" t="n">
-        <v>108.8571415611604</v>
+        <v>109.5838671878593</v>
       </c>
       <c r="J15" t="n">
-        <v>32.41445699677197</v>
+        <v>61.24279335074469</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,28 +23618,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.81915882786036</v>
+        <v>26.51350566091041</v>
       </c>
       <c r="R15" t="n">
-        <v>139.7968638827211</v>
+        <v>141.1073770001158</v>
       </c>
       <c r="S15" t="n">
-        <v>203.6560472602979</v>
+        <v>204.0481087926635</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1477703045399</v>
+        <v>229.2328481199458</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6340888900596</v>
+        <v>249.635477537754</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>245.8007542192721</v>
       </c>
       <c r="X15" t="n">
-        <v>230.033063710963</v>
+        <v>192.584561167304</v>
       </c>
       <c r="Y15" t="n">
         <v>242.8962664135933</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0373010510658</v>
+        <v>169.05499682387</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8254007775686</v>
+        <v>165.9827322848645</v>
       </c>
       <c r="I16" t="n">
-        <v>161.8087882835482</v>
+        <v>162.3409484329702</v>
       </c>
       <c r="J16" t="n">
-        <v>118.3467140172217</v>
+        <v>119.5978051544812</v>
       </c>
       <c r="K16" t="n">
-        <v>64.56716770262339</v>
+        <v>66.6230947611519</v>
       </c>
       <c r="L16" t="n">
-        <v>31.71607351339809</v>
+        <v>34.34695231740241</v>
       </c>
       <c r="M16" t="n">
-        <v>26.75403408396949</v>
+        <v>29.52792690636443</v>
       </c>
       <c r="N16" t="n">
-        <v>15.14649388945283</v>
+        <v>17.85442974048651</v>
       </c>
       <c r="O16" t="n">
-        <v>42.86976010990993</v>
+        <v>45.37097716045777</v>
       </c>
       <c r="P16" t="n">
-        <v>66.01319046981961</v>
+        <v>68.15341375516103</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.1358525516134</v>
+        <v>136.6176322179754</v>
       </c>
       <c r="R16" t="n">
-        <v>212.192004573983</v>
+        <v>212.9876708675262</v>
       </c>
       <c r="S16" t="n">
-        <v>240.2574314663159</v>
+        <v>240.5658205250951</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2445677451053</v>
+        <v>217.3201769561779</v>
       </c>
       <c r="U16" t="n">
-        <v>291.20883014969</v>
+        <v>291.2097953736612</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>364.5563275970632</v>
+        <v>296.7128102574146</v>
       </c>
       <c r="C17" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>251.2882383035991</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>381.7714025374457</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>299.6092805770971</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>190.260482561632</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>16.9214877377118</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
@@ -23797,10 +23797,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>289.0603092307505</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.9289763951821</v>
+        <v>310.0854590555335</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C18" t="n">
-        <v>203.8424276152394</v>
+        <v>135.9989102755908</v>
       </c>
       <c r="D18" t="n">
         <v>172.0989423795122</v>
@@ -23831,10 +23831,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>91.0872413955973</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>93.81180103394459</v>
+        <v>101.9417755883211</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1107734547038</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T18" t="n">
-        <v>183.7494918086114</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
         <v>249.633423953496</v>
@@ -23873,13 +23873,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>215.4057394232825</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.8962664135933</v>
+        <v>175.0527490739448</v>
       </c>
     </row>
     <row r="19">
@@ -23916,22 +23916,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K19" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M19" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N19" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q19" t="n">
         <v>134.42632090912</v>
@@ -23977,13 +23977,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>292.1150375966388</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>361.9657537399573</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.8687327713273</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R20" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S20" t="n">
-        <v>175.4855331034307</v>
+        <v>156.9815124655154</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3376759156334</v>
+        <v>149.4941585759848</v>
       </c>
       <c r="U20" t="n">
-        <v>199.4126770140834</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>281.9334967844068</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.6732606793012</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
         <v>203.8424276152394</v>
@@ -24068,7 +24068,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I21" t="n">
-        <v>59.16966139112949</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J21" t="n">
         <v>58.29370945070389</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.240116966197</v>
+        <v>71.32582374342638</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>135.6247961641856</v>
       </c>
       <c r="T21" t="n">
-        <v>179.7675351560085</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>230.033063710963</v>
+        <v>192.8054982162091</v>
       </c>
       <c r="Y21" t="n">
         <v>242.8962664135933</v>
@@ -24211,25 +24211,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>250.3246143750153</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>281.8396388733533</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>397.9644274681813</v>
       </c>
       <c r="G23" t="n">
         <v>421.7169243770377</v>
       </c>
       <c r="H23" t="n">
-        <v>344.911523655548</v>
+        <v>344.9115236555481</v>
       </c>
       <c r="I23" t="n">
         <v>235.4098608666279</v>
       </c>
       <c r="J23" t="n">
-        <v>61.82075743261788</v>
+        <v>61.82075743261791</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.4151587581136</v>
+        <v>102.4151587581138</v>
       </c>
       <c r="S23" t="n">
-        <v>146.5830741016238</v>
+        <v>224.7019901645579</v>
       </c>
       <c r="T23" t="n">
         <v>217.314039885935</v>
@@ -24265,7 +24265,7 @@
         <v>248.751741760962</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380893</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>299.8100603322483</v>
       </c>
     </row>
     <row r="24">
@@ -24302,13 +24302,13 @@
         <v>160.7668935257341</v>
       </c>
       <c r="H24" t="n">
-        <v>57.2355786672464</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I24" t="n">
-        <v>61.76278297701253</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J24" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.16023228977373</v>
       </c>
       <c r="R24" t="n">
         <v>138.9899725937864</v>
@@ -24338,16 +24338,16 @@
         <v>203.4146524730248</v>
       </c>
       <c r="T24" t="n">
-        <v>150.9764712877678</v>
+        <v>218.309012849664</v>
       </c>
       <c r="U24" t="n">
-        <v>171.514317827879</v>
+        <v>171.5143178278793</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>171.1810091172386</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999973</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24390,22 +24390,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K25" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L25" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579266</v>
       </c>
       <c r="M25" t="n">
-        <v>25.04613057264987</v>
+        <v>25.04613057264993</v>
       </c>
       <c r="N25" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O25" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129618</v>
       </c>
       <c r="P25" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q25" t="n">
         <v>134.2235113556054</v>
@@ -24457,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7169243770377</v>
+        <v>343.5980083141038</v>
       </c>
       <c r="H26" t="n">
-        <v>344.911523655548</v>
+        <v>344.9115236555481</v>
       </c>
       <c r="I26" t="n">
         <v>235.4098608666279</v>
       </c>
       <c r="J26" t="n">
-        <v>60.63876732742989</v>
+        <v>61.82075743261791</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>67.62515116304436</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4151587581136</v>
+        <v>102.4151587581138</v>
       </c>
       <c r="S26" t="n">
         <v>224.7019901645579</v>
       </c>
       <c r="T26" t="n">
-        <v>139.1951238230009</v>
+        <v>139.1951238230011</v>
       </c>
       <c r="U26" t="n">
-        <v>170.6328256980279</v>
+        <v>248.751741760962</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>244.497300732791</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24533,19 +24533,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>95.86543206239006</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7668935257341</v>
+        <v>82.64797746280027</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3544947301804</v>
+        <v>124.5681202291425</v>
       </c>
       <c r="I27" t="n">
-        <v>108.4096919554711</v>
+        <v>30.29077589253728</v>
       </c>
       <c r="J27" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,22 +24566,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.16023228977369</v>
+        <v>22.16023228977373</v>
       </c>
       <c r="R27" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S27" t="n">
-        <v>125.2957364100908</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T27" t="n">
-        <v>150.9764712877678</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U27" t="n">
-        <v>171.514317827879</v>
+        <v>249.6332338908131</v>
       </c>
       <c r="V27" t="n">
-        <v>180.4927839119401</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24627,22 +24627,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K28" t="n">
-        <v>63.3013202935493</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L28" t="n">
-        <v>30.09622464579263</v>
+        <v>30.09622464579266</v>
       </c>
       <c r="M28" t="n">
-        <v>25.04613057264987</v>
+        <v>25.04613057264993</v>
       </c>
       <c r="N28" t="n">
-        <v>13.47920050628034</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O28" t="n">
-        <v>41.32974481129615</v>
+        <v>41.32974481129618</v>
       </c>
       <c r="P28" t="n">
-        <v>64.69544133599162</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q28" t="n">
         <v>134.2235113556054</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.5563275970632</v>
+        <v>286.4374115341292</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
@@ -24694,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7169243770377</v>
+        <v>343.5980083141037</v>
       </c>
       <c r="H29" t="n">
-        <v>344.911523655548</v>
+        <v>266.7926075926141</v>
       </c>
       <c r="I29" t="n">
         <v>235.4098608666279</v>
       </c>
       <c r="J29" t="n">
-        <v>61.82075743261782</v>
+        <v>61.82075743261791</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.62515116304422</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>180.5340748210476</v>
       </c>
       <c r="S29" t="n">
-        <v>146.5830741016238</v>
+        <v>224.7019901645579</v>
       </c>
       <c r="T29" t="n">
-        <v>139.1951238230009</v>
+        <v>217.314039885935</v>
       </c>
       <c r="U29" t="n">
-        <v>170.6328256980279</v>
+        <v>248.751741760962</v>
       </c>
       <c r="V29" t="n">
-        <v>244.4973007327908</v>
+        <v>312.1224518958353</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24761,10 +24761,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>125.7235115523053</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
-        <v>172.0989423795122</v>
+        <v>93.98002631657826</v>
       </c>
       <c r="E30" t="n">
         <v>187.4605452976028</v>
@@ -24782,7 +24782,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J30" t="n">
-        <v>58.02076676719408</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.16023228977373</v>
       </c>
       <c r="R30" t="n">
-        <v>60.87105653085231</v>
+        <v>138.9899725937864</v>
       </c>
       <c r="S30" t="n">
         <v>203.4146524730248</v>
       </c>
       <c r="T30" t="n">
-        <v>150.9764712877678</v>
+        <v>150.976471287768</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278792</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>180.4927839119401</v>
       </c>
       <c r="W30" t="n">
-        <v>236.6023477844724</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24864,22 +24864,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K31" t="n">
-        <v>63.30132029354925</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L31" t="n">
-        <v>30.09622464579259</v>
+        <v>30.09622464579266</v>
       </c>
       <c r="M31" t="n">
-        <v>25.04613057264984</v>
+        <v>25.04613057264993</v>
       </c>
       <c r="N31" t="n">
-        <v>13.47920050628031</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O31" t="n">
-        <v>41.32974481129611</v>
+        <v>41.32974481129618</v>
       </c>
       <c r="P31" t="n">
-        <v>64.69544133599157</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q31" t="n">
         <v>134.2235113556054</v>
@@ -24919,28 +24919,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>255.4782034112745</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0128395803135</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>281.8396388733534</v>
       </c>
       <c r="F32" t="n">
-        <v>321.0275015104349</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
         <v>421.7169243770377</v>
       </c>
       <c r="H32" t="n">
-        <v>344.911523655548</v>
+        <v>344.9115236555481</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2909448036938</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J32" t="n">
-        <v>61.82075743261782</v>
+        <v>61.82075743261791</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.62515116304422</v>
+        <v>67.62515116304436</v>
       </c>
       <c r="R32" t="n">
         <v>180.5340748210476</v>
@@ -24979,10 +24979,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>256.5845842110613</v>
       </c>
       <c r="X32" t="n">
-        <v>280.0097380352804</v>
+        <v>270.6979632405789</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -24998,10 +24998,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
-        <v>125.7235115523053</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>103.2918011112799</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
         <v>187.4605452976028</v>
@@ -25019,7 +25019,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J33" t="n">
-        <v>58.02076676719408</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,28 +25040,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.16023228977365</v>
+        <v>22.16023228977373</v>
       </c>
       <c r="R33" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4146524730248</v>
+        <v>125.2957364100909</v>
       </c>
       <c r="T33" t="n">
-        <v>150.9764712877678</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U33" t="n">
-        <v>171.514317827879</v>
+        <v>171.5143178278792</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999972</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>161.2259224427307</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25101,22 +25101,22 @@
         <v>117.5764092206357</v>
       </c>
       <c r="K34" t="n">
-        <v>63.30132029354925</v>
+        <v>63.30132029354931</v>
       </c>
       <c r="L34" t="n">
-        <v>30.09622464579259</v>
+        <v>30.09622464579266</v>
       </c>
       <c r="M34" t="n">
-        <v>25.04613057264984</v>
+        <v>25.04613057264993</v>
       </c>
       <c r="N34" t="n">
-        <v>13.47920050628031</v>
+        <v>13.47920050628036</v>
       </c>
       <c r="O34" t="n">
-        <v>41.32974481129611</v>
+        <v>41.32974481129618</v>
       </c>
       <c r="P34" t="n">
-        <v>64.69544133599157</v>
+        <v>64.69544133599163</v>
       </c>
       <c r="Q34" t="n">
         <v>134.2235113556054</v>
@@ -25156,7 +25156,7 @@
         <v>286.4374115341292</v>
       </c>
       <c r="C35" t="n">
-        <v>255.4782034112745</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25165,7 +25165,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>399.146417573369</v>
+        <v>321.0275015104351</v>
       </c>
       <c r="G35" t="n">
         <v>421.7169243770377</v>
@@ -25174,10 +25174,10 @@
         <v>344.9115236555481</v>
       </c>
       <c r="I35" t="n">
-        <v>228.4234770310137</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>61.82075743261791</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.9289763951821</v>
+        <v>309.12183512695</v>
       </c>
     </row>
     <row r="36">
@@ -25241,19 +25241,19 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
-        <v>109.3416292346689</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>105.1772068570917</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
         <v>160.7668935257341</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3544947301804</v>
+        <v>57.23557866724654</v>
       </c>
       <c r="I36" t="n">
-        <v>108.4096919554711</v>
+        <v>30.29077589253724</v>
       </c>
       <c r="J36" t="n">
         <v>58.02076676719413</v>
@@ -25280,7 +25280,7 @@
         <v>22.16023228977373</v>
       </c>
       <c r="R36" t="n">
-        <v>60.87105653085253</v>
+        <v>138.9899725937864</v>
       </c>
       <c r="S36" t="n">
         <v>203.4146524730248</v>
@@ -25289,13 +25289,13 @@
         <v>229.0953873507019</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6332338908131</v>
+        <v>180.8260926225809</v>
       </c>
       <c r="V36" t="n">
-        <v>171.1810091172385</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999972</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25396,10 +25396,10 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1317556432476</v>
+        <v>250.3246143750155</v>
       </c>
       <c r="E38" t="n">
-        <v>299.5401795160822</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
         <v>399.146417573369</v>
@@ -25447,13 +25447,13 @@
         <v>217.314039885935</v>
       </c>
       <c r="U38" t="n">
-        <v>180.1568559523731</v>
+        <v>170.6328256980281</v>
       </c>
       <c r="V38" t="n">
-        <v>244.7095561924342</v>
+        <v>235.1855259380892</v>
       </c>
       <c r="W38" t="n">
-        <v>256.7968396707045</v>
+        <v>247.2728094163595</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>119.4178715724456</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>135.2475418066505</v>
+        <v>125.7235115523055</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>187.4605452976028</v>
+        <v>109.3416292346689</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25487,13 +25487,13 @@
         <v>160.7668935257341</v>
       </c>
       <c r="H39" t="n">
-        <v>132.9568860771695</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I39" t="n">
-        <v>39.81480614688226</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>229.0953873507019</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278792</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25538,7 +25538,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>174.0891251453612</v>
       </c>
     </row>
     <row r="40">
@@ -25639,16 +25639,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>355.0434479060923</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>371.6454329291759</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8400322076862</v>
+        <v>344.9115236555481</v>
       </c>
       <c r="I41" t="n">
-        <v>185.3383694187661</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J41" t="n">
         <v>61.82075743261791</v>
@@ -25684,19 +25684,19 @@
         <v>217.314039885935</v>
       </c>
       <c r="U41" t="n">
-        <v>248.751741760962</v>
+        <v>206.7165295250375</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>265.5805407340788</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>277.667824212349</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>330.2050751282378</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.9412659331726</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
         <v>203.8424276152394</v>
@@ -25727,10 +25727,10 @@
         <v>135.3544947301804</v>
       </c>
       <c r="I42" t="n">
-        <v>64.30672228819444</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J42" t="n">
-        <v>7.949275319332273</v>
+        <v>58.02076676719413</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>22.16023228977373</v>
       </c>
       <c r="R42" t="n">
-        <v>138.9899725937864</v>
+        <v>91.26607132684209</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4146524730248</v>
+        <v>155.6907512060804</v>
       </c>
       <c r="T42" t="n">
         <v>229.0953873507019</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6332338908131</v>
+        <v>207.5980216548885</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>201.576023913228</v>
       </c>
       <c r="W42" t="n">
-        <v>233.1777653150693</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
@@ -25870,7 +25870,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>278.5360933955835</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
@@ -25909,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.62515116304436</v>
+        <v>25.58993892711982</v>
       </c>
       <c r="R44" t="n">
-        <v>134.4445400257886</v>
+        <v>132.8101735541033</v>
       </c>
       <c r="S44" t="n">
-        <v>224.7019901645579</v>
+        <v>176.9780888976136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.314039885935</v>
+        <v>169.5901386189906</v>
       </c>
       <c r="U44" t="n">
-        <v>202.662206965703</v>
+        <v>248.751741760962</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W44" t="n">
-        <v>279.3021906840344</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X44" t="n">
         <v>348.8168793035129</v>
@@ -25958,7 +25958,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6773587304751</v>
+        <v>160.7668935257341</v>
       </c>
       <c r="H45" t="n">
         <v>135.3544947301804</v>
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.16023228977373</v>
       </c>
       <c r="R45" t="n">
-        <v>92.90043779852743</v>
+        <v>138.9899725937864</v>
       </c>
       <c r="S45" t="n">
         <v>203.4146524730248</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0953873507019</v>
+        <v>181.3714860837576</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6332338908131</v>
+        <v>201.9093326238687</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>201.576023913228</v>
       </c>
       <c r="W45" t="n">
-        <v>237.1597219676721</v>
+        <v>241.2140445270065</v>
       </c>
       <c r="X45" t="n">
-        <v>211.5976337530726</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>399074.5100993045</v>
+        <v>382861.4828522507</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447849.2728525438</v>
+        <v>464334.3703654184</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459542.3100688758</v>
+        <v>464334.3703654184</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473790.4567606166</v>
+        <v>489667.5363568223</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>476602.0687223822</v>
+        <v>489667.5363568223</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>497249.6665192997</v>
+        <v>497249.6665192993</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>497249.6665192996</v>
+        <v>497249.6665192994</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>497249.6665192996</v>
+        <v>497249.6665192994</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>497249.6665192996</v>
+        <v>497249.6665192994</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>497249.6665192996</v>
+        <v>497249.6665192993</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490474.3853191528</v>
+        <v>497249.6665192996</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>477395.2381307765</v>
+        <v>475737.6327850033</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474583.6261690106</v>
+        <v>475737.6327850033</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>101666.2295477194</v>
       </c>
       <c r="D2" t="n">
-        <v>106324.6178041929</v>
+        <v>101666.2295477194</v>
       </c>
       <c r="E2" t="n">
-        <v>120313.5686137952</v>
+        <v>124637.25209283</v>
       </c>
       <c r="F2" t="n">
-        <v>123587.3022628529</v>
+        <v>124637.25209283</v>
       </c>
       <c r="G2" t="n">
-        <v>127275.7024290945</v>
+        <v>131268.0112447031</v>
       </c>
       <c r="H2" t="n">
-        <v>127982.6852941115</v>
+        <v>131268.0112447032</v>
       </c>
       <c r="I2" t="n">
-        <v>133186.1013673772</v>
+        <v>133186.101367377</v>
       </c>
       <c r="J2" t="n">
-        <v>133186.1013673772</v>
+        <v>133186.101367377</v>
       </c>
       <c r="K2" t="n">
         <v>133186.1013673771</v>
       </c>
       <c r="L2" t="n">
-        <v>133186.1013673772</v>
+        <v>133186.1013673771</v>
       </c>
       <c r="M2" t="n">
         <v>133186.1013673771</v>
       </c>
       <c r="N2" t="n">
-        <v>131495.142177421</v>
+        <v>133186.1013673771</v>
       </c>
       <c r="O2" t="n">
-        <v>128206.3764882147</v>
+        <v>127789.5698333995</v>
       </c>
       <c r="P2" t="n">
-        <v>127499.3936231977</v>
+        <v>127789.5698333995</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27142.64844824309</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83873.53997022918</v>
+        <v>122416.5739324903</v>
       </c>
       <c r="F3" t="n">
-        <v>17439.21727903274</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8730.306583937709</v>
+        <v>19613.70541571001</v>
       </c>
       <c r="H3" t="n">
-        <v>1074.367742482125</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8664.076403754721</v>
+        <v>3743.46873169948</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4313.750006629023</v>
+        <v>9332.316627889999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>10085.30784394608</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10085.30784394608</v>
+      </c>
+      <c r="D4" t="n">
         <v>10085.30784394609</v>
       </c>
-      <c r="C4" t="n">
-        <v>10085.30784394609</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9217.578150597305</v>
-      </c>
       <c r="E4" t="n">
-        <v>6712.064283181462</v>
+        <v>7358.248103612057</v>
       </c>
       <c r="F4" t="n">
-        <v>6408.312623012497</v>
+        <v>7358.248103612057</v>
       </c>
       <c r="G4" t="n">
-        <v>7145.747535684118</v>
+        <v>8400.65495008104</v>
       </c>
       <c r="H4" t="n">
-        <v>7367.974342311091</v>
+        <v>8400.654950081042</v>
       </c>
       <c r="I4" t="n">
+        <v>8957.233612277272</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8957.233612277276</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8957.233612277281</v>
+      </c>
+      <c r="L4" t="n">
         <v>8957.233612277279</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8957.233612277279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8957.233612277276</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8957.233612277278</v>
       </c>
       <c r="M4" t="n">
         <v>8957.233612277279</v>
       </c>
       <c r="N4" t="n">
-        <v>8375.234938592428</v>
+        <v>8957.233612277279</v>
       </c>
       <c r="O4" t="n">
-        <v>7341.473113489259</v>
+        <v>7210.4577572992</v>
       </c>
       <c r="P4" t="n">
-        <v>7119.246306862287</v>
+        <v>7210.4577572992</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>41112.97456555201</v>
+        <v>40422.05903150924</v>
       </c>
       <c r="E5" t="n">
-        <v>10673.45967627084</v>
+        <v>12089.6500408389</v>
       </c>
       <c r="F5" t="n">
-        <v>11658.22295017639</v>
+        <v>12089.6500408389</v>
       </c>
       <c r="G5" t="n">
-        <v>12886.88102139041</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="H5" t="n">
-        <v>13128.98398586867</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="I5" t="n">
-        <v>14908.05247287483</v>
+        <v>14908.05247287481</v>
       </c>
       <c r="J5" t="n">
-        <v>14908.05247287483</v>
+        <v>14908.05247287481</v>
       </c>
       <c r="K5" t="n">
-        <v>14908.05247287484</v>
+        <v>14908.05247287482</v>
       </c>
       <c r="L5" t="n">
-        <v>14908.05247287484</v>
+        <v>14908.05247287482</v>
       </c>
       <c r="M5" t="n">
         <v>14908.05247287482</v>
       </c>
       <c r="N5" t="n">
-        <v>14328.99143341064</v>
+        <v>14908.05247287482</v>
       </c>
       <c r="O5" t="n">
-        <v>13202.76905627844</v>
+        <v>13060.03557327865</v>
       </c>
       <c r="P5" t="n">
-        <v>12960.66609180018</v>
+        <v>13060.03557327865</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249172.7451593744</v>
+        <v>-266215.1328472898</v>
       </c>
       <c r="C6" t="n">
-        <v>51158.86267226411</v>
+        <v>34116.47498434873</v>
       </c>
       <c r="D6" t="n">
-        <v>28851.41663980049</v>
+        <v>34116.47498434872</v>
       </c>
       <c r="E6" t="n">
-        <v>19054.50468411373</v>
+        <v>-32738.20616901922</v>
       </c>
       <c r="F6" t="n">
-        <v>88081.54941063124</v>
+        <v>89678.36776347105</v>
       </c>
       <c r="G6" t="n">
-        <v>98512.76728808222</v>
+        <v>73930.68686347504</v>
       </c>
       <c r="H6" t="n">
-        <v>106411.3592234496</v>
+        <v>93544.39227918509</v>
       </c>
       <c r="I6" t="n">
-        <v>100656.7388784703</v>
+        <v>90636.28365058727</v>
       </c>
       <c r="J6" t="n">
-        <v>109320.815282225</v>
+        <v>94379.75238228674</v>
       </c>
       <c r="K6" t="n">
-        <v>109320.815282225</v>
+        <v>94379.75238228682</v>
       </c>
       <c r="L6" t="n">
-        <v>109320.8152822251</v>
+        <v>94379.7523822868</v>
       </c>
       <c r="M6" t="n">
-        <v>105007.065275596</v>
+        <v>85047.43575439679</v>
       </c>
       <c r="N6" t="n">
-        <v>108790.915805418</v>
+        <v>94379.75238228677</v>
       </c>
       <c r="O6" t="n">
-        <v>107662.134318447</v>
+        <v>92218.24483395158</v>
       </c>
       <c r="P6" t="n">
-        <v>107419.4812245353</v>
+        <v>92218.2448339516</v>
       </c>
     </row>
   </sheetData>
@@ -26743,31 +26743,31 @@
         <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>343.3658057592666</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="E3" t="n">
-        <v>441.3304888935825</v>
+        <v>450.1275727607539</v>
       </c>
       <c r="F3" t="n">
-        <v>459.940683134012</v>
+        <v>450.1275727607539</v>
       </c>
       <c r="G3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="H3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="I3" t="n">
-        <v>465.9826778095613</v>
+        <v>465.9826778095612</v>
       </c>
       <c r="J3" t="n">
-        <v>465.9826778095613</v>
+        <v>465.9826778095612</v>
       </c>
       <c r="K3" t="n">
-        <v>465.9826778095615</v>
+        <v>465.9826778095612</v>
       </c>
       <c r="L3" t="n">
-        <v>465.9826778095615</v>
+        <v>465.9826778095612</v>
       </c>
       <c r="M3" t="n">
         <v>465.9826778095612</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="F4" t="n">
-        <v>26.83414568840334</v>
+        <v>37.448502543659</v>
       </c>
       <c r="G4" t="n">
-        <v>45.35754004913036</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H4" t="n">
-        <v>49.33949670173322</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I4" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="J4" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="K4" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="L4" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="M4" t="n">
         <v>78.11891606293391</v>
       </c>
       <c r="N4" t="n">
-        <v>68.59488580858888</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="O4" t="n">
-        <v>50.07149144786186</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="P4" t="n">
-        <v>46.089534795259</v>
+        <v>47.72390126694434</v>
       </c>
     </row>
   </sheetData>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>31.69337312122769</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.96468313431603</v>
+        <v>138.4551401227151</v>
       </c>
       <c r="F3" t="n">
-        <v>18.61019424042947</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.698885049625062</v>
+        <v>14.51199542288322</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.343109625924228</v>
+        <v>1.343109625924114</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="F4" t="n">
-        <v>9.524030254345035</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>18.52339436072702</v>
+        <v>30.39501479598957</v>
       </c>
       <c r="H4" t="n">
-        <v>3.981956652602861</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.77941936120082</v>
+        <v>10.27539872328522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>17.31011543405813</v>
+        <v>37.448502543659</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="N4" t="n">
-        <v>9.524030254345035</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>18.52339436072702</v>
+        <v>30.39501479598957</v>
       </c>
       <c r="P4" t="n">
-        <v>3.981956652602861</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.380365048278458</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H8" t="n">
-        <v>14.13666355068176</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I8" t="n">
-        <v>53.21652352375528</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J8" t="n">
-        <v>117.1567580163238</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K8" t="n">
-        <v>175.587610509951</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L8" t="n">
-        <v>217.8319573562028</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M8" t="n">
-        <v>242.3800242835249</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N8" t="n">
-        <v>246.3019864769461</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O8" t="n">
-        <v>232.5759815281271</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P8" t="n">
-        <v>198.4982193987527</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.0638961072804</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R8" t="n">
-        <v>86.70935596392172</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S8" t="n">
-        <v>31.45506853764538</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T8" t="n">
-        <v>6.042547998838951</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H9" t="n">
-        <v>7.132938719640614</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42850542651172</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J9" t="n">
-        <v>69.77776247038078</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K9" t="n">
-        <v>119.2613101003671</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L9" t="n">
-        <v>160.3615491897405</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M9" t="n">
-        <v>187.1343641388002</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N9" t="n">
-        <v>192.087253921875</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O9" t="n">
-        <v>175.7223100473861</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P9" t="n">
-        <v>141.0326457655372</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.27658878129901</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R9" t="n">
-        <v>45.85553156913377</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S9" t="n">
-        <v>13.71843573009899</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T9" t="n">
-        <v>2.976916749931753</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H10" t="n">
-        <v>5.505110787419063</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I10" t="n">
-        <v>18.62055877789597</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J10" t="n">
-        <v>43.77632576048878</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K10" t="n">
-        <v>71.93795078038401</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L10" t="n">
-        <v>92.05580962929582</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M10" t="n">
-        <v>97.05994407716446</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N10" t="n">
-        <v>94.75207554665143</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O10" t="n">
-        <v>87.51887783516521</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P10" t="n">
-        <v>74.88751934133246</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.84823666964925</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R10" t="n">
-        <v>27.84077500467757</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S10" t="n">
-        <v>10.7906926170576</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T10" t="n">
-        <v>2.645605388636971</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.774192920175205</v>
+        <v>1.809558081450265</v>
       </c>
       <c r="H11" t="n">
-        <v>18.16995324374432</v>
+        <v>18.53213670165254</v>
       </c>
       <c r="I11" t="n">
-        <v>68.39957255505465</v>
+        <v>69.76298793511143</v>
       </c>
       <c r="J11" t="n">
-        <v>150.5824063587204</v>
+        <v>153.5839802154896</v>
       </c>
       <c r="K11" t="n">
-        <v>225.6839926697369</v>
+        <v>230.1825738032794</v>
       </c>
       <c r="L11" t="n">
-        <v>279.9809492505489</v>
+        <v>285.561836938463</v>
       </c>
       <c r="M11" t="n">
-        <v>311.5327525947147</v>
+        <v>317.7425654694542</v>
       </c>
       <c r="N11" t="n">
-        <v>316.5736782291625</v>
+        <v>322.8839723683748</v>
       </c>
       <c r="O11" t="n">
-        <v>298.9315473791703</v>
+        <v>304.8901791959536</v>
       </c>
       <c r="P11" t="n">
-        <v>255.1311596623449</v>
+        <v>260.2167140601502</v>
       </c>
       <c r="Q11" t="n">
-        <v>191.5928757085703</v>
+        <v>195.4119152682125</v>
       </c>
       <c r="R11" t="n">
-        <v>111.4481460219558</v>
+        <v>113.6696528339003</v>
       </c>
       <c r="S11" t="n">
-        <v>40.42942116849252</v>
+        <v>41.23530478104797</v>
       </c>
       <c r="T11" t="n">
-        <v>7.766529508066963</v>
+        <v>7.921340501548541</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1419354336140164</v>
+        <v>0.1447646465160212</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9492769006390266</v>
+        <v>0.9681989300891688</v>
       </c>
       <c r="H12" t="n">
-        <v>9.168016382487442</v>
+        <v>9.350763351124341</v>
       </c>
       <c r="I12" t="n">
-        <v>32.68343714919456</v>
+        <v>33.33491930350866</v>
       </c>
       <c r="J12" t="n">
-        <v>89.68584963449682</v>
+        <v>91.47356646074907</v>
       </c>
       <c r="K12" t="n">
-        <v>153.2874019773116</v>
+        <v>156.3428947767234</v>
       </c>
       <c r="L12" t="n">
-        <v>206.1138287988378</v>
+        <v>210.2223159388785</v>
       </c>
       <c r="M12" t="n">
-        <v>225.1811400450101</v>
+        <v>245.3195271546108</v>
       </c>
       <c r="N12" t="n">
-        <v>209.3973693559333</v>
+        <v>229.535756465534</v>
       </c>
       <c r="O12" t="n">
-        <v>225.8571229340582</v>
+        <v>230.359155090119</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2702530702717</v>
+        <v>184.8835307816765</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.1743636675361</v>
+        <v>123.5897441285753</v>
       </c>
       <c r="R12" t="n">
-        <v>58.9384377431845</v>
+        <v>60.11326339623806</v>
       </c>
       <c r="S12" t="n">
-        <v>17.63240207985208</v>
+        <v>17.98387047775275</v>
       </c>
       <c r="T12" t="n">
-        <v>3.826252068803794</v>
+        <v>3.902521126105025</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06245242767362019</v>
+        <v>0.06369729803218217</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7958418652179357</v>
+        <v>0.8117054590767692</v>
       </c>
       <c r="H13" t="n">
-        <v>7.075757674392197</v>
+        <v>7.216799445246189</v>
       </c>
       <c r="I13" t="n">
-        <v>23.93313536491756</v>
+        <v>24.41019689659958</v>
       </c>
       <c r="J13" t="n">
-        <v>56.26601987090805</v>
+        <v>57.38757595672758</v>
       </c>
       <c r="K13" t="n">
-        <v>92.46235488622922</v>
+        <v>94.30541606364643</v>
       </c>
       <c r="L13" t="n">
-        <v>118.3199805797647</v>
+        <v>120.6784643431044</v>
       </c>
       <c r="M13" t="n">
-        <v>124.7518298359351</v>
+        <v>127.2385202805521</v>
       </c>
       <c r="N13" t="n">
-        <v>121.7855101564865</v>
+        <v>124.213072660357</v>
       </c>
       <c r="O13" t="n">
-        <v>112.4886301855315</v>
+        <v>114.7308770702328</v>
       </c>
       <c r="P13" t="n">
-        <v>96.25345613508556</v>
+        <v>98.17208570506666</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.64090382293097</v>
+        <v>67.96926348687383</v>
       </c>
       <c r="R13" t="n">
-        <v>35.78394423061735</v>
+        <v>36.49722909630636</v>
       </c>
       <c r="S13" t="n">
-        <v>13.86935323293438</v>
+        <v>14.14581240954696</v>
       </c>
       <c r="T13" t="n">
-        <v>3.400415242294815</v>
+        <v>3.468196052418922</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04340955628461472</v>
+        <v>0.04427484322236928</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.849007771393012</v>
+        <v>1.809558081450265</v>
       </c>
       <c r="H14" t="n">
-        <v>18.93615083877869</v>
+        <v>18.53213670165254</v>
       </c>
       <c r="I14" t="n">
-        <v>71.28387210662916</v>
+        <v>69.76298793511143</v>
       </c>
       <c r="J14" t="n">
-        <v>156.9322233372678</v>
+        <v>153.5839802154896</v>
       </c>
       <c r="K14" t="n">
-        <v>235.200722300334</v>
+        <v>230.1825738032794</v>
       </c>
       <c r="L14" t="n">
-        <v>291.787293884103</v>
+        <v>285.561836938463</v>
       </c>
       <c r="M14" t="n">
-        <v>324.6695858386134</v>
+        <v>317.7425654694542</v>
       </c>
       <c r="N14" t="n">
-        <v>329.9230791690838</v>
+        <v>322.8839723683748</v>
       </c>
       <c r="O14" t="n">
-        <v>311.5370081422946</v>
+        <v>304.8901791959536</v>
       </c>
       <c r="P14" t="n">
-        <v>265.8896287860296</v>
+        <v>260.2167140601502</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.6720379730172</v>
+        <v>195.4119152682125</v>
       </c>
       <c r="R14" t="n">
-        <v>116.1477344197664</v>
+        <v>113.6696528339003</v>
       </c>
       <c r="S14" t="n">
-        <v>42.1342645906183</v>
+        <v>41.23530478104797</v>
       </c>
       <c r="T14" t="n">
-        <v>8.094031519272914</v>
+        <v>7.921340501548541</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1479206217114409</v>
+        <v>0.1447646465160212</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9893063750429694</v>
+        <v>0.9681989300891688</v>
       </c>
       <c r="H15" t="n">
-        <v>9.554616832651837</v>
+        <v>9.350763351124341</v>
       </c>
       <c r="I15" t="n">
-        <v>34.0616449302075</v>
+        <v>33.33491930350866</v>
       </c>
       <c r="J15" t="n">
-        <v>93.46775712631845</v>
+        <v>91.47356646074907</v>
       </c>
       <c r="K15" t="n">
-        <v>159.7512842541974</v>
+        <v>156.3428947767234</v>
       </c>
       <c r="L15" t="n">
-        <v>214.8053162127289</v>
+        <v>210.2223159388785</v>
       </c>
       <c r="M15" t="n">
-        <v>234.7051702993552</v>
+        <v>245.3195271546108</v>
       </c>
       <c r="N15" t="n">
-        <v>218.9213996102783</v>
+        <v>229.535756465534</v>
       </c>
       <c r="O15" t="n">
-        <v>235.3811531884033</v>
+        <v>230.359155090119</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9141270027228</v>
+        <v>184.8835307816765</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.2840909616254</v>
+        <v>123.5897441285753</v>
       </c>
       <c r="R15" t="n">
-        <v>61.4237765136328</v>
+        <v>60.11326339623806</v>
       </c>
       <c r="S15" t="n">
-        <v>18.3759320101183</v>
+        <v>17.98387047775275</v>
       </c>
       <c r="T15" t="n">
-        <v>3.987598941510914</v>
+        <v>3.902521126105025</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06508594572651116</v>
+        <v>0.06369729803218217</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8294012318810052</v>
+        <v>0.8117054590767692</v>
       </c>
       <c r="H16" t="n">
-        <v>7.374130952542034</v>
+        <v>7.216799445246189</v>
       </c>
       <c r="I16" t="n">
-        <v>24.94235704602151</v>
+        <v>24.41019689659958</v>
       </c>
       <c r="J16" t="n">
-        <v>58.63866709398707</v>
+        <v>57.38757595672758</v>
       </c>
       <c r="K16" t="n">
-        <v>96.36134312217494</v>
+        <v>94.30541606364643</v>
       </c>
       <c r="L16" t="n">
-        <v>123.3093431471087</v>
+        <v>120.6784643431044</v>
       </c>
       <c r="M16" t="n">
-        <v>130.012413102947</v>
+        <v>127.2385202805521</v>
       </c>
       <c r="N16" t="n">
-        <v>126.9210085113906</v>
+        <v>124.213072660357</v>
       </c>
       <c r="O16" t="n">
-        <v>117.2320941207807</v>
+        <v>114.7308770702328</v>
       </c>
       <c r="P16" t="n">
-        <v>100.3123089904081</v>
+        <v>98.17208570506666</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.45104315323582</v>
+        <v>67.96926348687383</v>
       </c>
       <c r="R16" t="n">
-        <v>37.29289538984955</v>
+        <v>36.49722909630636</v>
       </c>
       <c r="S16" t="n">
-        <v>14.45420146832624</v>
+        <v>14.14581240954696</v>
       </c>
       <c r="T16" t="n">
-        <v>3.543805263491567</v>
+        <v>3.468196052418922</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04524006719350943</v>
+        <v>0.04427484322236928</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H17" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I17" t="n">
         <v>72.01212845185798</v>
@@ -32241,22 +32241,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L17" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M17" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O17" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R17" t="n">
         <v>117.334332763479</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H18" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J18" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K18" t="n">
         <v>161.3833488850657</v>
@@ -32326,7 +32326,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>237.4447939710053</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32338,16 +32338,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S18" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H19" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I19" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K19" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L19" t="n">
         <v>124.569106525823</v>
@@ -32414,10 +32414,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R19" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S19" t="n">
         <v>14.60186970832839</v>
@@ -32426,7 +32426,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>241.4267506236082</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H23" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I23" t="n">
-        <v>72.22029019599243</v>
+        <v>72.2202901959924</v>
       </c>
       <c r="J23" t="n">
         <v>158.9937579929216</v>
       </c>
       <c r="K23" t="n">
-        <v>238.2904283514291</v>
+        <v>238.290428351429</v>
       </c>
       <c r="L23" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M23" t="n">
         <v>328.9345964821231</v>
       </c>
       <c r="N23" t="n">
-        <v>334.2571021437369</v>
+        <v>334.2571021437368</v>
       </c>
       <c r="O23" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P23" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R23" t="n">
-        <v>117.6735050651452</v>
+        <v>117.6735050651451</v>
       </c>
       <c r="S23" t="n">
         <v>42.68775988175027</v>
       </c>
       <c r="T23" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U23" t="n">
         <v>0.1498637757779492</v>
@@ -32782,25 +32782,25 @@
         <v>1.002302363590377</v>
       </c>
       <c r="H24" t="n">
-        <v>9.680130722043907</v>
+        <v>9.680130722043906</v>
       </c>
       <c r="I24" t="n">
         <v>34.50909453589676</v>
       </c>
       <c r="J24" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K24" t="n">
         <v>161.8498514048549</v>
       </c>
       <c r="L24" t="n">
-        <v>217.6270987260598</v>
+        <v>217.6270987260597</v>
       </c>
       <c r="M24" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N24" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O24" t="n">
         <v>238.4732294635403</v>
@@ -32812,16 +32812,16 @@
         <v>127.943017499712</v>
       </c>
       <c r="R24" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S24" t="n">
         <v>18.61732679739142</v>
       </c>
       <c r="T24" t="n">
-        <v>4.039981895348931</v>
+        <v>4.03998189534893</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06594094497305115</v>
+        <v>0.06594094497305114</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8402966321156022</v>
+        <v>0.8402966321156021</v>
       </c>
       <c r="H25" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536904</v>
       </c>
       <c r="I25" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J25" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057306</v>
       </c>
       <c r="K25" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L25" t="n">
         <v>124.9291920147142</v>
@@ -32882,25 +32882,25 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O25" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P25" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R25" t="n">
-        <v>37.78279220403425</v>
+        <v>37.78279220403424</v>
       </c>
       <c r="S25" t="n">
         <v>14.64407857968735</v>
       </c>
       <c r="T25" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H26" t="n">
         <v>19.18490492107404</v>
       </c>
       <c r="I26" t="n">
-        <v>72.22029019599243</v>
+        <v>72.2202901959924</v>
       </c>
       <c r="J26" t="n">
         <v>158.9937579929216</v>
       </c>
       <c r="K26" t="n">
-        <v>238.2904283514291</v>
+        <v>238.290428351429</v>
       </c>
       <c r="L26" t="n">
-        <v>295.6203474509844</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M26" t="n">
         <v>328.9345964821231</v>
       </c>
       <c r="N26" t="n">
-        <v>334.2571021437369</v>
+        <v>334.2571021437368</v>
       </c>
       <c r="O26" t="n">
-        <v>315.6295031388371</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P26" t="n">
         <v>269.3824785823605</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R26" t="n">
-        <v>117.6735050651452</v>
+        <v>117.6735050651451</v>
       </c>
       <c r="S26" t="n">
         <v>42.68775988175027</v>
       </c>
       <c r="T26" t="n">
-        <v>8.200358480849665</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U26" t="n">
         <v>0.1498637757779492</v>
@@ -33019,25 +33019,25 @@
         <v>1.002302363590377</v>
       </c>
       <c r="H27" t="n">
-        <v>9.680130722043907</v>
+        <v>9.680130722043906</v>
       </c>
       <c r="I27" t="n">
         <v>34.50909453589676</v>
       </c>
       <c r="J27" t="n">
-        <v>94.69559304429964</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K27" t="n">
         <v>161.8498514048549</v>
       </c>
       <c r="L27" t="n">
-        <v>217.6270987260598</v>
+        <v>217.6270987260597</v>
       </c>
       <c r="M27" t="n">
-        <v>253.9605594062109</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N27" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O27" t="n">
         <v>238.4732294635403</v>
@@ -33049,16 +33049,16 @@
         <v>127.943017499712</v>
       </c>
       <c r="R27" t="n">
-        <v>62.23066780256748</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S27" t="n">
         <v>18.61732679739142</v>
       </c>
       <c r="T27" t="n">
-        <v>4.039981895348931</v>
+        <v>4.03998189534893</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06594094497305115</v>
+        <v>0.06594094497305114</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8402966321156022</v>
+        <v>0.8402966321156021</v>
       </c>
       <c r="H28" t="n">
-        <v>7.471000965536906</v>
+        <v>7.471000965536904</v>
       </c>
       <c r="I28" t="n">
-        <v>25.27001144580376</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J28" t="n">
-        <v>59.40897189057308</v>
+        <v>59.40897189057306</v>
       </c>
       <c r="K28" t="n">
-        <v>97.62719053124904</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L28" t="n">
         <v>124.9291920147142</v>
@@ -33119,25 +33119,25 @@
         <v>128.5883018945631</v>
       </c>
       <c r="O28" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P28" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.36338434924376</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R28" t="n">
-        <v>37.78279220403425</v>
+        <v>37.78279220403424</v>
       </c>
       <c r="S28" t="n">
         <v>14.64407857968735</v>
       </c>
       <c r="T28" t="n">
-        <v>3.590358337221209</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04583436175176018</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H29" t="n">
-        <v>19.18490492107405</v>
+        <v>19.18490492107404</v>
       </c>
       <c r="I29" t="n">
-        <v>72.22029019599246</v>
+        <v>72.2202901959924</v>
       </c>
       <c r="J29" t="n">
-        <v>158.9937579929217</v>
+        <v>158.9937579929216</v>
       </c>
       <c r="K29" t="n">
-        <v>238.2904283514292</v>
+        <v>238.290428351429</v>
       </c>
       <c r="L29" t="n">
-        <v>295.6203474509845</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M29" t="n">
-        <v>328.9345964821233</v>
+        <v>328.9345964821231</v>
       </c>
       <c r="N29" t="n">
-        <v>334.257102143737</v>
+        <v>334.2571021437368</v>
       </c>
       <c r="O29" t="n">
-        <v>315.6295031388372</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P29" t="n">
-        <v>269.3824785823606</v>
+        <v>269.3824785823605</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R29" t="n">
-        <v>117.6735050651452</v>
+        <v>117.6735050651451</v>
       </c>
       <c r="S29" t="n">
-        <v>42.68775988175029</v>
+        <v>42.68775988175027</v>
       </c>
       <c r="T29" t="n">
-        <v>8.200358480849667</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1498637757779493</v>
+        <v>0.1498637757779492</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.002302363590378</v>
+        <v>1.002302363590377</v>
       </c>
       <c r="H30" t="n">
-        <v>9.680130722043911</v>
+        <v>9.680130722043906</v>
       </c>
       <c r="I30" t="n">
-        <v>34.50909453589678</v>
+        <v>34.50909453589676</v>
       </c>
       <c r="J30" t="n">
-        <v>94.69559304429968</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K30" t="n">
-        <v>161.849851404855</v>
+        <v>161.8498514048549</v>
       </c>
       <c r="L30" t="n">
-        <v>217.6270987260598</v>
+        <v>217.6270987260597</v>
       </c>
       <c r="M30" t="n">
-        <v>253.960559406211</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N30" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O30" t="n">
-        <v>238.4732294635404</v>
+        <v>238.4732294635403</v>
       </c>
       <c r="P30" t="n">
-        <v>191.3957908157801</v>
+        <v>191.39579081578</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.9430174997121</v>
+        <v>127.943017499712</v>
       </c>
       <c r="R30" t="n">
-        <v>62.2306678025675</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S30" t="n">
-        <v>18.61732679739143</v>
+        <v>18.61732679739142</v>
       </c>
       <c r="T30" t="n">
-        <v>4.039981895348933</v>
+        <v>4.03998189534893</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06594094497305118</v>
+        <v>0.06594094497305114</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8402966321156026</v>
+        <v>0.8402966321156021</v>
       </c>
       <c r="H31" t="n">
-        <v>7.471000965536908</v>
+        <v>7.471000965536904</v>
       </c>
       <c r="I31" t="n">
-        <v>25.27001144580377</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J31" t="n">
-        <v>59.4089718905731</v>
+        <v>59.40897189057306</v>
       </c>
       <c r="K31" t="n">
-        <v>97.62719053124908</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L31" t="n">
         <v>124.9291920147142</v>
       </c>
       <c r="M31" t="n">
-        <v>131.7203166142667</v>
+        <v>131.7203166142666</v>
       </c>
       <c r="N31" t="n">
-        <v>128.5883018945632</v>
+        <v>128.5883018945631</v>
       </c>
       <c r="O31" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P31" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.36338434924379</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R31" t="n">
-        <v>37.78279220403427</v>
+        <v>37.78279220403424</v>
       </c>
       <c r="S31" t="n">
-        <v>14.64407857968736</v>
+        <v>14.64407857968735</v>
       </c>
       <c r="T31" t="n">
-        <v>3.59035833722121</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04583436175176019</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.873297197224366</v>
+        <v>1.873297197224365</v>
       </c>
       <c r="H32" t="n">
-        <v>19.18490492107405</v>
+        <v>19.18490492107404</v>
       </c>
       <c r="I32" t="n">
-        <v>72.22029019599246</v>
+        <v>72.2202901959924</v>
       </c>
       <c r="J32" t="n">
-        <v>158.9937579929217</v>
+        <v>158.9937579929216</v>
       </c>
       <c r="K32" t="n">
-        <v>238.2904283514292</v>
+        <v>238.290428351429</v>
       </c>
       <c r="L32" t="n">
-        <v>295.6203474509845</v>
+        <v>295.6203474509843</v>
       </c>
       <c r="M32" t="n">
-        <v>328.9345964821233</v>
+        <v>328.9345964821231</v>
       </c>
       <c r="N32" t="n">
-        <v>334.257102143737</v>
+        <v>334.2571021437368</v>
       </c>
       <c r="O32" t="n">
-        <v>315.6295031388372</v>
+        <v>315.629503138837</v>
       </c>
       <c r="P32" t="n">
-        <v>269.3824785823606</v>
+        <v>269.3824785823605</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.2950227067629</v>
+        <v>202.2950227067628</v>
       </c>
       <c r="R32" t="n">
-        <v>117.6735050651452</v>
+        <v>117.6735050651451</v>
       </c>
       <c r="S32" t="n">
-        <v>42.68775988175029</v>
+        <v>42.68775988175027</v>
       </c>
       <c r="T32" t="n">
-        <v>8.200358480849667</v>
+        <v>8.200358480849664</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1498637757779493</v>
+        <v>0.1498637757779492</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.002302363590378</v>
+        <v>1.002302363590377</v>
       </c>
       <c r="H33" t="n">
-        <v>9.680130722043911</v>
+        <v>9.680130722043906</v>
       </c>
       <c r="I33" t="n">
-        <v>34.50909453589678</v>
+        <v>34.50909453589676</v>
       </c>
       <c r="J33" t="n">
-        <v>94.69559304429968</v>
+        <v>94.69559304429963</v>
       </c>
       <c r="K33" t="n">
-        <v>161.849851404855</v>
+        <v>161.8498514048549</v>
       </c>
       <c r="L33" t="n">
-        <v>217.6270987260598</v>
+        <v>217.6270987260597</v>
       </c>
       <c r="M33" t="n">
-        <v>253.960559406211</v>
+        <v>253.9605594062108</v>
       </c>
       <c r="N33" t="n">
-        <v>260.682139730464</v>
+        <v>260.6821397304639</v>
       </c>
       <c r="O33" t="n">
-        <v>238.4732294635404</v>
+        <v>238.4732294635403</v>
       </c>
       <c r="P33" t="n">
-        <v>191.3957908157801</v>
+        <v>191.39579081578</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.9430174997121</v>
+        <v>127.943017499712</v>
       </c>
       <c r="R33" t="n">
-        <v>62.2306678025675</v>
+        <v>62.23066780256747</v>
       </c>
       <c r="S33" t="n">
-        <v>18.61732679739143</v>
+        <v>18.61732679739142</v>
       </c>
       <c r="T33" t="n">
-        <v>4.039981895348933</v>
+        <v>4.03998189534893</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06594094497305118</v>
+        <v>0.06594094497305114</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8402966321156026</v>
+        <v>0.8402966321156021</v>
       </c>
       <c r="H34" t="n">
-        <v>7.471000965536908</v>
+        <v>7.471000965536904</v>
       </c>
       <c r="I34" t="n">
-        <v>25.27001144580377</v>
+        <v>25.27001144580375</v>
       </c>
       <c r="J34" t="n">
-        <v>59.4089718905731</v>
+        <v>59.40897189057306</v>
       </c>
       <c r="K34" t="n">
-        <v>97.62719053124908</v>
+        <v>97.62719053124903</v>
       </c>
       <c r="L34" t="n">
         <v>124.9291920147142</v>
       </c>
       <c r="M34" t="n">
-        <v>131.7203166142667</v>
+        <v>131.7203166142666</v>
       </c>
       <c r="N34" t="n">
-        <v>128.5883018945632</v>
+        <v>128.5883018945631</v>
       </c>
       <c r="O34" t="n">
-        <v>118.7721094193945</v>
+        <v>118.7721094193944</v>
       </c>
       <c r="P34" t="n">
         <v>101.6300581242361</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.36338434924379</v>
+        <v>70.36338434924374</v>
       </c>
       <c r="R34" t="n">
-        <v>37.78279220403427</v>
+        <v>37.78279220403424</v>
       </c>
       <c r="S34" t="n">
-        <v>14.64407857968736</v>
+        <v>14.64407857968735</v>
       </c>
       <c r="T34" t="n">
-        <v>3.59035833722121</v>
+        <v>3.590358337221208</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04583436175176019</v>
+        <v>0.04583436175176017</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34222,7 +34222,7 @@
         <v>253.9605594062108</v>
       </c>
       <c r="N42" t="n">
-        <v>242.1587453697368</v>
+        <v>239.8111551888193</v>
       </c>
       <c r="O42" t="n">
         <v>238.4732294635403</v>
@@ -34459,7 +34459,7 @@
         <v>253.9605594062108</v>
       </c>
       <c r="N45" t="n">
-        <v>238.176788717134</v>
+        <v>239.8111551888193</v>
       </c>
       <c r="O45" t="n">
         <v>238.4732294635403</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="M11" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="N11" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="O11" t="n">
-        <v>15.99014933581337</v>
+        <v>35.93543173381421</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6205674948486433</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>16.61071683066201</v>
+        <v>37.448502543659</v>
       </c>
       <c r="M12" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="N12" t="n">
-        <v>17.3101154340583</v>
+        <v>37.448502543659</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3101154340583</v>
+        <v>35.93543173381421</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>26.83414568840334</v>
+        <v>37.448502543659</v>
       </c>
       <c r="M14" t="n">
-        <v>26.83414568840334</v>
+        <v>37.448502543659</v>
       </c>
       <c r="N14" t="n">
-        <v>14.37090116326783</v>
+        <v>35.93543173381421</v>
       </c>
       <c r="O14" t="n">
-        <v>26.83414568840334</v>
+        <v>37.448502543659</v>
       </c>
       <c r="P14" t="n">
-        <v>11.37903661853335</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.74993778180118</v>
+        <v>7.586535510812524</v>
       </c>
       <c r="M15" t="n">
-        <v>26.83414568840334</v>
+        <v>37.448502543659</v>
       </c>
       <c r="N15" t="n">
-        <v>26.83414568840334</v>
+        <v>37.448502543659</v>
       </c>
       <c r="O15" t="n">
-        <v>26.83414568840334</v>
+        <v>37.448502543659</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>28.34889622300167</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>29.4294713538748</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M17" t="n">
-        <v>45.35754004913036</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N17" t="n">
-        <v>45.35754004913036</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O17" t="n">
-        <v>45.35754004913036</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P17" t="n">
-        <v>14.09544081448263</v>
+        <v>6.550555229814288</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>28.55120600833615</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>31.09237960294637</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M18" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N18" t="n">
-        <v>45.35754004913036</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O18" t="n">
-        <v>29.23886660620528</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>19.74482507477483</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.33949670173322</v>
+        <v>58.55180989409087</v>
       </c>
       <c r="M20" t="n">
-        <v>33.25054086899877</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N20" t="n">
-        <v>49.33949670173322</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O20" t="n">
-        <v>49.33949670173322</v>
+        <v>60.29863175498025</v>
       </c>
       <c r="P20" t="n">
         <v>14.09544081448263</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>28.55120600833615</v>
       </c>
       <c r="L21" t="n">
-        <v>49.33949670173322</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M21" t="n">
-        <v>47.34598168348138</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N21" t="n">
-        <v>49.33949670173322</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O21" t="n">
-        <v>49.33949670173322</v>
+        <v>44.67308831593669</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478246</v>
       </c>
       <c r="L23" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M23" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="N23" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="O23" t="n">
-        <v>78.11891606293401</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="P23" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>55.46891794822709</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="M24" t="n">
-        <v>78.11891606293405</v>
+        <v>46.089534795259</v>
       </c>
       <c r="N24" t="n">
-        <v>68.594885808589</v>
+        <v>68.59488580858888</v>
       </c>
       <c r="O24" t="n">
-        <v>78.11891606293405</v>
+        <v>38.39709168109311</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>78.11891606293379</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6868284666479099</v>
+        <v>0.6868284666478246</v>
       </c>
       <c r="L26" t="n">
-        <v>59.4038813404951</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M26" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="N26" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="O26" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P26" t="n">
-        <v>14.87188641486432</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>57.57207725236175</v>
+        <v>54.56040451281196</v>
       </c>
       <c r="M27" t="n">
-        <v>46.08953479525906</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="N27" t="n">
-        <v>68.594885808589</v>
+        <v>68.59488580858888</v>
       </c>
       <c r="O27" t="n">
-        <v>29.92622196354034</v>
+        <v>29.92622196354029</v>
       </c>
       <c r="P27" t="n">
-        <v>78.11891606293405</v>
+        <v>78.11891606293386</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6868284666479951</v>
+        <v>0.6868284666478246</v>
       </c>
       <c r="L29" t="n">
-        <v>59.40388134049522</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M29" t="n">
-        <v>78.11891606293389</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N29" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O29" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293412</v>
       </c>
       <c r="P29" t="n">
-        <v>14.87188641486443</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.01770852812541</v>
+        <v>29.0177085281253</v>
       </c>
       <c r="L30" t="n">
-        <v>55.4689179482271</v>
+        <v>14.99131829799373</v>
       </c>
       <c r="M30" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N30" t="n">
-        <v>68.59488580858905</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O30" t="n">
-        <v>78.11891606293409</v>
+        <v>30.95356939588828</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6868284666479951</v>
+        <v>0.6868284666478246</v>
       </c>
       <c r="L32" t="n">
-        <v>59.40388134049522</v>
+        <v>59.40388134049505</v>
       </c>
       <c r="M32" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="N32" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="O32" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P32" t="n">
-        <v>14.87188641486443</v>
+        <v>14.87188641486426</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>29.01770852812541</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>57.57207725236158</v>
+        <v>14.99131829799373</v>
       </c>
       <c r="M33" t="n">
-        <v>46.08953479525917</v>
+        <v>69.49530817835866</v>
       </c>
       <c r="N33" t="n">
-        <v>68.59488580858905</v>
+        <v>68.59488580858888</v>
       </c>
       <c r="O33" t="n">
-        <v>29.92622196354043</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P33" t="n">
-        <v>78.11891606293409</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>29.0177085281253</v>
       </c>
       <c r="L36" t="n">
-        <v>78.11891606293391</v>
+        <v>57.57207725236165</v>
       </c>
       <c r="M36" t="n">
         <v>46.089534795259</v>
@@ -37399,7 +37399,7 @@
         <v>68.59488580858888</v>
       </c>
       <c r="O36" t="n">
-        <v>38.39709168109334</v>
+        <v>29.92622196354029</v>
       </c>
       <c r="P36" t="n">
         <v>78.11891606293391</v>
@@ -37551,13 +37551,13 @@
         <v>59.40388134049505</v>
       </c>
       <c r="M38" t="n">
-        <v>68.59488580858888</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="N38" t="n">
-        <v>59.45566485744985</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="O38" t="n">
-        <v>68.59488580858888</v>
+        <v>78.11891606293395</v>
       </c>
       <c r="P38" t="n">
         <v>14.87188641486426</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>29.0177085281253</v>
       </c>
       <c r="L39" t="n">
-        <v>68.59488580858888</v>
+        <v>14.99131829799373</v>
       </c>
       <c r="M39" t="n">
         <v>46.089534795259</v>
@@ -37636,10 +37636,10 @@
         <v>68.59488580858888</v>
       </c>
       <c r="O39" t="n">
-        <v>68.59488580858888</v>
+        <v>72.50698091790819</v>
       </c>
       <c r="P39" t="n">
-        <v>19.73384047560912</v>
+        <v>78.11891606293391</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6868284666478246</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>50.07149144786186</v>
+        <v>30.92377641705201</v>
       </c>
       <c r="M41" t="n">
-        <v>32.48968600279978</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="N41" t="n">
-        <v>50.07149144786186</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="O41" t="n">
-        <v>50.07149144786186</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="P41" t="n">
         <v>14.87188641486426</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>22.10413557337446</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="M42" t="n">
         <v>46.089534795259</v>
       </c>
       <c r="N42" t="n">
-        <v>50.07149144786186</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="O42" t="n">
-        <v>29.92622196354029</v>
+        <v>47.43002930360164</v>
       </c>
       <c r="P42" t="n">
-        <v>50.07149144786186</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.6868284666478246</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.66861648767586</v>
+        <v>30.92377641705201</v>
       </c>
       <c r="M44" t="n">
-        <v>46.089534795259</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="N44" t="n">
-        <v>46.089534795259</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="O44" t="n">
-        <v>46.089534795259</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="P44" t="n">
         <v>14.87188641486426</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.089534795259</v>
+        <v>47.43002930360163</v>
       </c>
       <c r="M45" t="n">
         <v>46.089534795259</v>
       </c>
       <c r="N45" t="n">
-        <v>46.089534795259</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="O45" t="n">
-        <v>44.22733136918793</v>
+        <v>47.72390126694434</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
